--- a/water_quality/data_raw/Water quality data.xlsx
+++ b/water_quality/data_raw/Water quality data.xlsx
@@ -12,11 +12,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="75">
   <si>
     <t>ID</t>
   </si>
   <si>
+    <t>Depth</t>
+  </si>
+  <si>
     <t>Date</t>
   </si>
   <si>
@@ -122,6 +125,24 @@
     <t>R1</t>
   </si>
   <si>
+    <t>&lt;0.001</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>B4</t>
+  </si>
+  <si>
+    <t>B5</t>
+  </si>
+  <si>
     <t>Type</t>
   </si>
   <si>
@@ -201,6 +222,21 @@
   </si>
   <si>
     <t>Rickett's Reef</t>
+  </si>
+  <si>
+    <t>Boom</t>
+  </si>
+  <si>
+    <t>Boom - shoreside</t>
+  </si>
+  <si>
+    <t>Boom - shoreside seagrass</t>
+  </si>
+  <si>
+    <t>Boom - shoreside reef</t>
+  </si>
+  <si>
+    <t>Boom - oceanside</t>
   </si>
 </sst>
 </file>
@@ -240,14 +276,14 @@
       <name val="Docs-Calibri"/>
     </font>
     <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -270,7 +306,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="30">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -336,13 +372,28 @@
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -561,11 +612,17 @@
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+      <pane xSplit="2.0" ySplit="1.0" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="C1" sqref="C1" pane="topRight"/>
+      <selection activeCell="A2" sqref="A2" pane="bottomLeft"/>
+      <selection activeCell="C2" sqref="C2" pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="9.88"/>
+    <col customWidth="1" min="2" max="2" width="7.5"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -610,1635 +667,1748 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="3">
+        <v>15</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C2" s="3">
         <v>44292.0</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="2">
+      <c r="D2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="2">
         <v>7.9</v>
       </c>
-      <c r="E2" s="2">
+      <c r="F2" s="2">
         <v>35698.0</v>
       </c>
-      <c r="F2" s="2">
+      <c r="G2" s="2">
         <v>54918.0</v>
       </c>
-      <c r="G2" s="2">
+      <c r="H2" s="2">
         <v>36360.0</v>
       </c>
-      <c r="H2" s="2">
+      <c r="I2" s="2">
         <v>0.48</v>
       </c>
-      <c r="I2" s="2">
+      <c r="J2" s="2">
         <v>6.48</v>
-      </c>
-      <c r="J2" s="2">
-        <v>0.07</v>
       </c>
       <c r="K2" s="2">
         <v>0.07</v>
       </c>
       <c r="L2" s="2">
-        <v>0.44</v>
+        <v>0.07</v>
       </c>
       <c r="M2" s="2">
         <v>0.44</v>
       </c>
       <c r="N2" s="2">
+        <v>0.44</v>
+      </c>
+      <c r="O2" s="2">
         <v>26.3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="3">
+        <v>17</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C3" s="3">
         <v>44292.0</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="2">
+      <c r="D3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="2">
         <v>8.11</v>
       </c>
-      <c r="E3" s="2">
+      <c r="F3" s="2">
         <v>35695.0</v>
       </c>
-      <c r="F3" s="2">
+      <c r="G3" s="2">
         <v>54915.0</v>
       </c>
-      <c r="G3" s="2">
+      <c r="H3" s="2">
         <v>36340.0</v>
       </c>
-      <c r="H3" s="2">
+      <c r="I3" s="2">
         <v>0.28</v>
       </c>
-      <c r="I3" s="2">
+      <c r="J3" s="2">
         <v>6.43</v>
-      </c>
-      <c r="J3" s="2">
-        <v>0.03</v>
       </c>
       <c r="K3" s="2">
         <v>0.03</v>
       </c>
       <c r="L3" s="2">
-        <v>0.15</v>
+        <v>0.03</v>
       </c>
       <c r="M3" s="2">
         <v>0.15</v>
       </c>
       <c r="N3" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="O3" s="2">
         <v>26.3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="3">
+        <v>18</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C4" s="3">
         <v>44292.0</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="2">
+      <c r="D4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="2">
         <v>8.16</v>
       </c>
-      <c r="E4" s="2">
+      <c r="F4" s="2">
         <v>35703.0</v>
       </c>
-      <c r="F4" s="2">
+      <c r="G4" s="2">
         <v>54928.0</v>
       </c>
-      <c r="G4" s="2">
+      <c r="H4" s="2">
         <v>36350.0</v>
       </c>
-      <c r="H4" s="2">
+      <c r="I4" s="2">
         <v>0.22</v>
       </c>
-      <c r="I4" s="2">
+      <c r="J4" s="2">
         <v>6.54</v>
-      </c>
-      <c r="J4" s="2">
-        <v>0.02</v>
       </c>
       <c r="K4" s="2">
         <v>0.02</v>
       </c>
       <c r="L4" s="2">
-        <v>0.4</v>
+        <v>0.02</v>
       </c>
       <c r="M4" s="2">
         <v>0.4</v>
       </c>
       <c r="N4" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="O4" s="2">
         <v>26.3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="3">
+        <v>19</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C5" s="3">
         <v>44292.0</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="2">
+      <c r="D5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="2">
         <v>8.188</v>
       </c>
-      <c r="E5" s="2">
+      <c r="F5" s="2">
         <v>35775.0</v>
       </c>
-      <c r="F5" s="2">
+      <c r="G5" s="2">
         <v>55038.0</v>
       </c>
-      <c r="G5" s="2">
+      <c r="H5" s="2">
         <v>36430.0</v>
       </c>
-      <c r="H5" s="2">
+      <c r="I5" s="2">
         <v>0.35</v>
       </c>
-      <c r="I5" s="2">
+      <c r="J5" s="2">
         <v>6.26</v>
-      </c>
-      <c r="J5" s="2">
-        <v>0.08</v>
       </c>
       <c r="K5" s="2">
         <v>0.08</v>
       </c>
       <c r="L5" s="2">
-        <v>0.47</v>
+        <v>0.08</v>
       </c>
       <c r="M5" s="2">
         <v>0.47</v>
       </c>
       <c r="N5" s="2">
+        <v>0.47</v>
+      </c>
+      <c r="O5" s="2">
         <v>26.5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="3">
+        <v>20</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C6" s="3">
         <v>44292.0</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="2">
+      <c r="D6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="2">
         <v>8.13</v>
       </c>
-      <c r="E6" s="2">
+      <c r="F6" s="2">
         <v>35667.0</v>
       </c>
-      <c r="F6" s="2">
+      <c r="G6" s="2">
         <v>54872.0</v>
       </c>
-      <c r="G6" s="2">
+      <c r="H6" s="2">
         <v>36310.0</v>
       </c>
-      <c r="H6" s="2">
+      <c r="I6" s="2">
         <v>0.39</v>
       </c>
-      <c r="I6" s="2">
+      <c r="J6" s="2">
         <v>6.47</v>
       </c>
-      <c r="J6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K6" s="2">
+      <c r="K6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" s="2">
         <v>0.01</v>
-      </c>
-      <c r="L6" s="2">
-        <v>0.4</v>
       </c>
       <c r="M6" s="2">
         <v>0.4</v>
       </c>
       <c r="N6" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="O6" s="2">
         <v>26.4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C7" s="3">
+        <v>44292.0</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="2">
+        <v>8.19</v>
+      </c>
+      <c r="F7" s="2">
+        <v>35687.0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>54903.0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>36330.0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0.31</v>
+      </c>
+      <c r="J7" s="2">
+        <v>7.19</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="3">
-        <v>44292.0</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="2">
-        <v>8.19</v>
-      </c>
-      <c r="E7" s="2">
-        <v>35687.0</v>
-      </c>
-      <c r="F7" s="2">
-        <v>54903.0</v>
-      </c>
-      <c r="G7" s="2">
-        <v>36330.0</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0.31</v>
-      </c>
-      <c r="I7" s="2">
-        <v>7.19</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>0.01</v>
-      </c>
-      <c r="L7" s="2">
-        <v>0.4</v>
       </c>
       <c r="M7" s="2">
         <v>0.4</v>
       </c>
       <c r="N7" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="O7" s="2">
         <v>26.4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="3">
+        <v>23</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C8" s="3">
         <v>44292.0</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="2">
+      <c r="D8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="2">
         <v>8.21</v>
       </c>
-      <c r="E8" s="2">
+      <c r="F8" s="2">
         <v>35751.0</v>
       </c>
-      <c r="F8" s="2">
+      <c r="G8" s="2">
         <v>55002.0</v>
       </c>
-      <c r="G8" s="2">
+      <c r="H8" s="2">
         <v>36400.0</v>
       </c>
-      <c r="H8" s="2">
+      <c r="I8" s="2">
         <v>0.29</v>
       </c>
-      <c r="I8" s="2">
+      <c r="J8" s="2">
         <v>6.96</v>
-      </c>
-      <c r="J8" s="2">
-        <v>0.04</v>
       </c>
       <c r="K8" s="2">
         <v>0.04</v>
       </c>
       <c r="L8" s="2">
-        <v>0.13</v>
+        <v>0.04</v>
       </c>
       <c r="M8" s="2">
         <v>0.13</v>
       </c>
       <c r="N8" s="2">
+        <v>0.13</v>
+      </c>
+      <c r="O8" s="2">
         <v>26.7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="3">
+        <v>24</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C9" s="3">
         <v>44292.0</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="2">
+      <c r="D9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="2">
         <v>8.18</v>
       </c>
-      <c r="E9" s="2">
+      <c r="F9" s="2">
         <v>35705.0</v>
       </c>
-      <c r="F9" s="2">
+      <c r="G9" s="2">
         <v>54930.0</v>
       </c>
-      <c r="G9" s="2">
+      <c r="H9" s="2">
         <v>36360.0</v>
       </c>
-      <c r="H9" s="2">
+      <c r="I9" s="2">
         <v>0.28</v>
       </c>
-      <c r="I9" s="2">
+      <c r="J9" s="2">
         <v>6.51</v>
-      </c>
-      <c r="J9" s="2">
-        <v>0.08</v>
       </c>
       <c r="K9" s="2">
         <v>0.08</v>
       </c>
       <c r="L9" s="2">
-        <v>0.37</v>
+        <v>0.08</v>
       </c>
       <c r="M9" s="2">
         <v>0.37</v>
       </c>
       <c r="N9" s="2">
+        <v>0.37</v>
+      </c>
+      <c r="O9" s="2">
         <v>26.2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="3">
+        <v>25</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C10" s="3">
         <v>44292.0</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="2">
+      <c r="D10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="2">
         <v>8.19</v>
       </c>
-      <c r="E10" s="2">
+      <c r="F10" s="2">
         <v>35738.0</v>
       </c>
-      <c r="F10" s="2">
+      <c r="G10" s="2">
         <v>54982.0</v>
       </c>
-      <c r="G10" s="2">
+      <c r="H10" s="2">
         <v>36390.0</v>
       </c>
-      <c r="H10" s="2">
+      <c r="I10" s="2">
         <v>0.38</v>
       </c>
-      <c r="I10" s="2">
+      <c r="J10" s="2">
         <v>6.47</v>
       </c>
-      <c r="J10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K10" s="2">
+      <c r="K10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" s="2">
         <v>0.01</v>
-      </c>
-      <c r="L10" s="2">
-        <v>0.28</v>
       </c>
       <c r="M10" s="2">
         <v>0.28</v>
       </c>
       <c r="N10" s="2">
+        <v>0.28</v>
+      </c>
+      <c r="O10" s="2">
         <v>26.3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="3">
+        <v>26</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C11" s="3">
         <v>44292.0</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="2">
+      <c r="D11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="2">
         <v>8.19</v>
       </c>
-      <c r="E11" s="2">
+      <c r="F11" s="2">
         <v>35801.0</v>
       </c>
-      <c r="F11" s="2">
+      <c r="G11" s="2">
         <v>55079.0</v>
       </c>
-      <c r="G11" s="2">
+      <c r="H11" s="2">
         <v>36460.0</v>
       </c>
-      <c r="H11" s="2">
+      <c r="I11" s="2">
         <v>0.33</v>
       </c>
-      <c r="I11" s="2">
+      <c r="J11" s="2">
         <v>6.63</v>
-      </c>
-      <c r="J11" s="2">
-        <v>0.07</v>
       </c>
       <c r="K11" s="2">
         <v>0.07</v>
       </c>
       <c r="L11" s="2">
-        <v>0.41</v>
+        <v>0.07</v>
       </c>
       <c r="M11" s="2">
         <v>0.41</v>
       </c>
       <c r="N11" s="2">
+        <v>0.41</v>
+      </c>
+      <c r="O11" s="2">
         <v>26.5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="3">
+        <v>26</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C12" s="3">
         <v>44419.0</v>
       </c>
-      <c r="C12" s="4">
+      <c r="D12" s="4">
         <v>2.0</v>
       </c>
-      <c r="D12" s="4">
+      <c r="E12" s="4">
         <v>7.91</v>
       </c>
-      <c r="E12" s="4">
+      <c r="F12" s="4">
         <v>36660.0</v>
       </c>
-      <c r="F12" s="4">
+      <c r="G12" s="4">
         <v>55720.0</v>
       </c>
-      <c r="G12" s="4">
+      <c r="H12" s="4">
         <v>31850.0</v>
       </c>
-      <c r="H12" s="4">
+      <c r="I12" s="4">
         <v>1.58</v>
       </c>
-      <c r="I12" s="4">
+      <c r="J12" s="4">
         <v>6.84</v>
       </c>
-      <c r="J12" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K12" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M12" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="N12" s="4">
+      <c r="K12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N12" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="O12" s="4">
         <v>29.2</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="3">
+        <v>25</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C13" s="3">
         <v>44419.0</v>
       </c>
-      <c r="C13" s="4">
-        <v>1.0</v>
-      </c>
       <c r="D13" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E13" s="4">
         <v>7.99</v>
       </c>
-      <c r="E13" s="4">
+      <c r="F13" s="4">
         <v>35080.0</v>
       </c>
-      <c r="F13" s="4">
+      <c r="G13" s="4">
         <v>55100.0</v>
       </c>
-      <c r="G13" s="4">
+      <c r="H13" s="4">
         <v>30500.0</v>
       </c>
-      <c r="H13" s="4">
+      <c r="I13" s="4">
         <v>1.4</v>
       </c>
-      <c r="I13" s="4">
+      <c r="J13" s="4">
         <v>7.05</v>
       </c>
-      <c r="J13" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K13" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="L13" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M13" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="N13" s="4">
+      <c r="K13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L13" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N13" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="O13" s="4">
         <v>28.9</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="3">
+        <v>17</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C14" s="3">
         <v>44419.0</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="4">
+      <c r="D14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="4">
         <v>7.88</v>
       </c>
-      <c r="E14" s="4">
+      <c r="F14" s="4">
         <v>35500.0</v>
       </c>
-      <c r="F14" s="4">
+      <c r="G14" s="4">
         <v>56070.0</v>
       </c>
-      <c r="G14" s="4">
+      <c r="H14" s="4">
         <v>31590.0</v>
       </c>
-      <c r="H14" s="4">
+      <c r="I14" s="4">
         <v>0.66</v>
       </c>
-      <c r="I14" s="4">
+      <c r="J14" s="4">
         <v>7.51</v>
       </c>
-      <c r="J14" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K14" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="L14" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M14" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="N14" s="4">
+      <c r="K14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L14" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N14" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="O14" s="4">
         <v>28.7</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="3">
+        <v>19</v>
+      </c>
+      <c r="B15" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C15" s="3">
         <v>44419.0</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="4">
+      <c r="D15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="4">
         <v>7.84</v>
       </c>
-      <c r="E15" s="4">
+      <c r="F15" s="4">
         <v>35520.0</v>
       </c>
-      <c r="F15" s="4">
+      <c r="G15" s="4">
         <v>53550.0</v>
       </c>
-      <c r="G15" s="4">
+      <c r="H15" s="4">
         <v>32170.0</v>
       </c>
-      <c r="H15" s="4">
+      <c r="I15" s="4">
         <v>1.06</v>
       </c>
-      <c r="I15" s="4">
+      <c r="J15" s="4">
         <v>6.01</v>
       </c>
-      <c r="J15" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K15" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="L15" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M15" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="N15" s="4">
+      <c r="K15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L15" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N15" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="O15" s="4">
         <v>29.4</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="3">
+        <v>27</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C16" s="3">
         <v>44419.0</v>
       </c>
-      <c r="C16" s="4">
+      <c r="D16" s="4">
         <v>3.0</v>
       </c>
-      <c r="D16" s="4">
+      <c r="E16" s="4">
         <v>7.71</v>
       </c>
-      <c r="E16" s="4">
+      <c r="F16" s="4">
         <v>36200.0</v>
       </c>
-      <c r="F16" s="4">
+      <c r="G16" s="4">
         <v>54880.0</v>
       </c>
-      <c r="G16" s="4">
+      <c r="H16" s="4">
         <v>32330.0</v>
       </c>
-      <c r="H16" s="4">
+      <c r="I16" s="4">
         <v>3.1</v>
       </c>
-      <c r="I16" s="4">
+      <c r="J16" s="4">
         <v>6.2</v>
       </c>
-      <c r="J16" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K16" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="L16" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M16" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="N16" s="4">
+      <c r="K16" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L16" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N16" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="O16" s="4">
         <v>29.7</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="3">
+        <v>28</v>
+      </c>
+      <c r="B17" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C17" s="3">
         <v>44419.0</v>
       </c>
-      <c r="C17" s="4">
-        <v>1.0</v>
-      </c>
       <c r="D17" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E17" s="4">
         <v>7.8</v>
       </c>
-      <c r="E17" s="4">
+      <c r="F17" s="4">
         <v>34810.0</v>
       </c>
-      <c r="F17" s="4">
+      <c r="G17" s="4">
         <v>54550.0</v>
       </c>
-      <c r="G17" s="4">
+      <c r="H17" s="4">
         <v>31570.0</v>
       </c>
-      <c r="H17" s="4">
+      <c r="I17" s="4">
         <v>1.77</v>
       </c>
-      <c r="I17" s="4">
+      <c r="J17" s="4">
         <v>5.7</v>
       </c>
-      <c r="J17" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K17" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="L17" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M17" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="N17" s="4">
+      <c r="K17" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L17" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N17" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="O17" s="4">
         <v>28.7</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="3">
+        <v>29</v>
+      </c>
+      <c r="B18" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C18" s="3">
         <v>44419.0</v>
       </c>
-      <c r="C18" s="4">
-        <v>1.0</v>
-      </c>
       <c r="D18" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E18" s="4">
         <v>7.88</v>
       </c>
-      <c r="E18" s="4">
+      <c r="F18" s="4">
         <v>35880.0</v>
       </c>
-      <c r="F18" s="4">
+      <c r="G18" s="4">
         <v>54300.0</v>
       </c>
-      <c r="G18" s="4">
+      <c r="H18" s="4">
         <v>32080.0</v>
       </c>
-      <c r="H18" s="4">
+      <c r="I18" s="4">
         <v>0.91</v>
       </c>
-      <c r="I18" s="4">
+      <c r="J18" s="4">
         <v>6.58</v>
       </c>
-      <c r="J18" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K18" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="L18" s="4">
+      <c r="K18" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L18" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="M18" s="4">
         <v>0.04</v>
       </c>
-      <c r="M18" s="2">
+      <c r="N18" s="2">
         <v>0.04</v>
       </c>
-      <c r="N18" s="4">
+      <c r="O18" s="4">
         <v>28.6</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C19" s="3">
         <v>44419.0</v>
       </c>
-      <c r="C19" s="4">
-        <v>1.0</v>
-      </c>
       <c r="D19" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E19" s="4">
         <v>7.48</v>
       </c>
-      <c r="E19" s="4">
+      <c r="F19" s="4">
         <v>36160.0</v>
       </c>
-      <c r="F19" s="4">
+      <c r="G19" s="4">
         <v>54370.0</v>
       </c>
-      <c r="G19" s="4">
+      <c r="H19" s="4">
         <v>32130.0</v>
       </c>
-      <c r="H19" s="4">
+      <c r="I19" s="4">
         <v>1.71</v>
       </c>
-      <c r="I19" s="4">
+      <c r="J19" s="4">
         <v>6.43</v>
       </c>
-      <c r="J19" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K19" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="L19" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M19" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="N19" s="4">
+      <c r="K19" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L19" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N19" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="O19" s="4">
         <v>28.7</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="3">
+        <v>20</v>
+      </c>
+      <c r="B20" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C20" s="3">
         <v>44419.0</v>
       </c>
-      <c r="C20" s="4">
-        <v>1.0</v>
-      </c>
       <c r="D20" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E20" s="4">
         <v>7.68</v>
       </c>
-      <c r="E20" s="4">
+      <c r="F20" s="4">
         <v>36640.0</v>
       </c>
-      <c r="F20" s="4">
+      <c r="G20" s="4">
         <v>53620.0</v>
       </c>
-      <c r="G20" s="4">
+      <c r="H20" s="4">
         <v>31090.0</v>
       </c>
-      <c r="H20" s="4">
+      <c r="I20" s="4">
         <v>1.11</v>
       </c>
-      <c r="I20" s="4">
+      <c r="J20" s="4">
         <v>5.56</v>
       </c>
-      <c r="J20" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K20" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="L20" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M20" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="N20" s="4">
+      <c r="K20" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L20" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N20" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="O20" s="4">
         <v>28.8</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" s="3">
+        <v>30</v>
+      </c>
+      <c r="B21" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C21" s="3">
         <v>44419.0</v>
       </c>
-      <c r="C21" s="4">
+      <c r="D21" s="4">
         <v>10.0</v>
       </c>
-      <c r="D21" s="4">
+      <c r="E21" s="4">
         <v>7.25</v>
       </c>
-      <c r="E21" s="4">
+      <c r="F21" s="4">
         <v>36030.0</v>
       </c>
-      <c r="F21" s="4">
+      <c r="G21" s="4">
         <v>53210.0</v>
       </c>
-      <c r="G21" s="4">
+      <c r="H21" s="4">
         <v>32070.0</v>
       </c>
-      <c r="H21" s="4">
+      <c r="I21" s="4">
         <v>26.2</v>
       </c>
-      <c r="I21" s="4">
+      <c r="J21" s="4">
         <v>0.26</v>
       </c>
-      <c r="J21" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K21" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="L21" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M21" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="N21" s="4">
+      <c r="K21" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L21" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N21" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="O21" s="4">
         <v>28.6</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22" s="3">
+        <v>31</v>
+      </c>
+      <c r="B22" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C22" s="3">
         <v>44419.0</v>
       </c>
-      <c r="C22" s="4">
+      <c r="D22" s="4">
         <v>2.0</v>
       </c>
-      <c r="D22" s="4">
+      <c r="E22" s="4">
         <v>7.65</v>
       </c>
-      <c r="E22" s="4">
+      <c r="F22" s="4">
         <v>30840.0</v>
       </c>
-      <c r="F22" s="4">
+      <c r="G22" s="4">
         <v>54920.0</v>
       </c>
-      <c r="G22" s="4">
+      <c r="H22" s="4">
         <v>31850.0</v>
       </c>
-      <c r="H22" s="4">
+      <c r="I22" s="4">
         <v>2.98</v>
       </c>
-      <c r="I22" s="4">
+      <c r="J22" s="4">
         <v>5.48</v>
       </c>
-      <c r="J22" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K22" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="L22" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M22" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="N22" s="4">
+      <c r="K22" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L22" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N22" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="O22" s="4">
         <v>29.2</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" s="3">
+        <v>32</v>
+      </c>
+      <c r="B23" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C23" s="3">
         <v>44419.0</v>
       </c>
-      <c r="C23" s="4">
-        <v>1.0</v>
-      </c>
       <c r="D23" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E23" s="4">
         <v>7.71</v>
       </c>
-      <c r="E23" s="4">
+      <c r="F23" s="4">
         <v>36730.0</v>
       </c>
-      <c r="F23" s="4">
+      <c r="G23" s="4">
         <v>54830.0</v>
       </c>
-      <c r="G23" s="4">
+      <c r="H23" s="4">
         <v>31440.0</v>
       </c>
-      <c r="H23" s="4">
+      <c r="I23" s="4">
         <v>1.02</v>
       </c>
-      <c r="I23" s="4">
+      <c r="J23" s="4">
         <v>6.12</v>
       </c>
-      <c r="J23" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K23" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="L23" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M23" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="N23" s="4">
+      <c r="K23" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L23" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N23" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="O23" s="4">
         <v>28.8</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C24" s="3">
+        <v>44419.0</v>
+      </c>
+      <c r="D24" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E24" s="4">
+        <v>7.91</v>
+      </c>
+      <c r="F24" s="4">
+        <v>36010.0</v>
+      </c>
+      <c r="G24" s="4">
+        <v>53900.0</v>
+      </c>
+      <c r="H24" s="4">
+        <v>29750.0</v>
+      </c>
+      <c r="I24" s="4">
+        <v>1.07</v>
+      </c>
+      <c r="J24" s="4">
+        <v>6.72</v>
+      </c>
+      <c r="K24" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="3">
-        <v>44419.0</v>
-      </c>
-      <c r="C24" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="D24" s="4">
-        <v>7.91</v>
-      </c>
-      <c r="E24" s="4">
-        <v>36010.0</v>
-      </c>
-      <c r="F24" s="4">
-        <v>53900.0</v>
-      </c>
-      <c r="G24" s="4">
-        <v>29750.0</v>
-      </c>
-      <c r="H24" s="4">
-        <v>1.07</v>
-      </c>
-      <c r="I24" s="4">
-        <v>6.72</v>
-      </c>
-      <c r="J24" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K24" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="L24" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M24" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="N24" s="4">
+      <c r="L24" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N24" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="O24" s="4">
         <v>28.6</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25" s="3">
+        <v>23</v>
+      </c>
+      <c r="B25" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C25" s="3">
         <v>44419.0</v>
       </c>
-      <c r="C25" s="4">
-        <v>1.0</v>
-      </c>
       <c r="D25" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E25" s="4">
         <v>7.53</v>
       </c>
-      <c r="E25" s="4">
+      <c r="F25" s="4">
         <v>34580.0</v>
       </c>
-      <c r="F25" s="4">
+      <c r="G25" s="4">
         <v>54380.0</v>
       </c>
-      <c r="G25" s="4">
+      <c r="H25" s="4">
         <v>31160.0</v>
       </c>
-      <c r="H25" s="4">
+      <c r="I25" s="4">
         <v>2.14</v>
       </c>
-      <c r="I25" s="4">
+      <c r="J25" s="4">
         <v>5.78</v>
       </c>
-      <c r="J25" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K25" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="L25" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M25" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="N25" s="4">
+      <c r="K25" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L25" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="M25" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N25" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="O25" s="4">
         <v>28.8</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26" s="3">
+        <v>33</v>
+      </c>
+      <c r="B26" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C26" s="3">
         <v>44419.0</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D26" s="4">
+      <c r="D26" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="4">
         <v>7.5</v>
       </c>
-      <c r="E26" s="4">
+      <c r="F26" s="4">
         <v>34580.0</v>
       </c>
-      <c r="F26" s="4">
+      <c r="G26" s="4">
         <v>53920.0</v>
       </c>
-      <c r="G26" s="4">
+      <c r="H26" s="4">
         <v>31060.0</v>
       </c>
-      <c r="H26" s="4">
+      <c r="I26" s="4">
         <v>0.6</v>
       </c>
-      <c r="I26" s="4">
+      <c r="J26" s="4">
         <v>7.21</v>
       </c>
-      <c r="J26" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K26" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="L26" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M26" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="N26" s="4">
+      <c r="K26" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L26" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="M26" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N26" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="O26" s="4">
         <v>29.2</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27" s="3">
+        <v>34</v>
+      </c>
+      <c r="B27" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C27" s="3">
         <v>44419.0</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D27" s="4">
+      <c r="D27" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" s="4">
         <v>7.92</v>
       </c>
-      <c r="E27" s="4">
+      <c r="F27" s="4">
         <v>36590.0</v>
       </c>
-      <c r="F27" s="4">
+      <c r="G27" s="4">
         <v>54840.0</v>
       </c>
-      <c r="G27" s="4">
+      <c r="H27" s="4">
         <v>32230.0</v>
       </c>
-      <c r="H27" s="4">
+      <c r="I27" s="4">
         <v>0.53</v>
       </c>
-      <c r="I27" s="4">
+      <c r="J27" s="4">
         <v>6.51</v>
-      </c>
-      <c r="J27" s="4">
-        <v>0.14</v>
       </c>
       <c r="K27" s="4">
         <v>0.14</v>
       </c>
-      <c r="L27" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M27" s="4">
-        <v>0.0</v>
+      <c r="L27" s="4">
+        <v>0.14</v>
+      </c>
+      <c r="M27" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="N27" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="O27" s="4">
         <v>28.8</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" s="5">
+        <v>26</v>
+      </c>
+      <c r="B28" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C28" s="5">
         <v>44658.0</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D28" s="4">
+      <c r="D28" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" s="4">
         <v>8.13</v>
       </c>
-      <c r="E28" s="4">
+      <c r="F28" s="4">
         <v>34400.0</v>
       </c>
-      <c r="F28" s="6">
+      <c r="G28" s="6">
         <v>55515.0</v>
       </c>
-      <c r="G28" s="4">
+      <c r="H28" s="4">
         <v>30450.0</v>
       </c>
-      <c r="H28" s="4">
+      <c r="I28" s="4">
         <v>0.88</v>
       </c>
-      <c r="I28" s="4">
+      <c r="J28" s="4">
         <v>6.51</v>
       </c>
-      <c r="J28" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="K28" s="4">
-        <v>0.0</v>
+      <c r="K28" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="L28" s="4">
-        <v>0.33</v>
+        <v>0.0</v>
       </c>
       <c r="M28" s="4">
         <v>0.33</v>
       </c>
       <c r="N28" s="4">
+        <v>0.33</v>
+      </c>
+      <c r="O28" s="4">
         <v>26.4</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" s="5">
+        <v>25</v>
+      </c>
+      <c r="B29" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C29" s="5">
         <v>44658.0</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D29" s="4">
+      <c r="D29" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" s="4">
         <v>8.2</v>
       </c>
-      <c r="E29" s="4">
+      <c r="F29" s="4">
         <v>34200.0</v>
       </c>
-      <c r="F29" s="6">
+      <c r="G29" s="6">
         <v>55345.0</v>
       </c>
-      <c r="G29" s="4">
+      <c r="H29" s="4">
         <v>30850.0</v>
       </c>
-      <c r="H29" s="4">
+      <c r="I29" s="4">
         <v>1.09</v>
       </c>
-      <c r="I29" s="4">
+      <c r="J29" s="4">
         <v>6.52</v>
       </c>
-      <c r="J29" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="K29" s="4">
-        <v>0.0</v>
+      <c r="K29" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="L29" s="4">
-        <v>0.26</v>
+        <v>0.0</v>
       </c>
       <c r="M29" s="4">
         <v>0.26</v>
       </c>
       <c r="N29" s="4">
+        <v>0.26</v>
+      </c>
+      <c r="O29" s="4">
         <v>26.5</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B30" s="5">
+        <v>18</v>
+      </c>
+      <c r="B30" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C30" s="5">
         <v>44658.0</v>
       </c>
-      <c r="C30" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D30" s="4">
+      <c r="D30" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" s="4">
         <v>8.2</v>
       </c>
-      <c r="E30" s="4">
+      <c r="F30" s="4">
         <v>33900.0</v>
       </c>
-      <c r="F30" s="6">
+      <c r="G30" s="6">
         <v>55215.0</v>
       </c>
-      <c r="G30" s="4">
+      <c r="H30" s="4">
         <v>30600.0</v>
       </c>
-      <c r="H30" s="4">
+      <c r="I30" s="4">
         <v>0.89</v>
       </c>
-      <c r="I30" s="4">
+      <c r="J30" s="4">
         <v>6.63</v>
-      </c>
-      <c r="J30" s="4">
-        <v>0.01</v>
       </c>
       <c r="K30" s="4">
         <v>0.01</v>
       </c>
       <c r="L30" s="4">
-        <v>0.29</v>
+        <v>0.01</v>
       </c>
       <c r="M30" s="4">
         <v>0.29</v>
       </c>
       <c r="N30" s="4">
+        <v>0.29</v>
+      </c>
+      <c r="O30" s="4">
         <v>26.4</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B31" s="5">
+        <v>17</v>
+      </c>
+      <c r="B31" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C31" s="5">
         <v>44658.0</v>
       </c>
-      <c r="C31" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D31" s="4">
+      <c r="D31" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" s="4">
         <v>8.18</v>
       </c>
-      <c r="E31" s="4">
+      <c r="F31" s="4">
         <v>33800.0</v>
       </c>
-      <c r="F31" s="6">
+      <c r="G31" s="6">
         <v>55257.0</v>
       </c>
-      <c r="G31" s="4">
+      <c r="H31" s="4">
         <v>30880.0</v>
       </c>
-      <c r="H31" s="4">
+      <c r="I31" s="4">
         <v>0.63</v>
       </c>
-      <c r="I31" s="4">
+      <c r="J31" s="4">
         <v>6.46</v>
       </c>
-      <c r="J31" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="K31" s="4">
-        <v>0.0</v>
+      <c r="K31" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="L31" s="4">
-        <v>0.25</v>
+        <v>0.0</v>
       </c>
       <c r="M31" s="4">
         <v>0.25</v>
       </c>
       <c r="N31" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="O31" s="4">
         <v>26.5</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B32" s="5">
+        <v>20</v>
+      </c>
+      <c r="B32" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C32" s="5">
         <v>44658.0</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D32" s="4">
+      <c r="D32" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" s="4">
         <v>8.17</v>
       </c>
-      <c r="E32" s="4">
+      <c r="F32" s="4">
         <v>33700.0</v>
       </c>
-      <c r="F32" s="6">
+      <c r="G32" s="6">
         <v>55377.0</v>
       </c>
-      <c r="G32" s="4">
+      <c r="H32" s="4">
         <v>30320.0</v>
       </c>
-      <c r="H32" s="4">
+      <c r="I32" s="4">
         <v>0.7</v>
       </c>
-      <c r="I32" s="4">
+      <c r="J32" s="4">
         <v>6.54</v>
       </c>
-      <c r="J32" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="K32" s="4">
-        <v>0.0</v>
+      <c r="K32" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="L32" s="4">
-        <v>0.23</v>
+        <v>0.0</v>
       </c>
       <c r="M32" s="4">
         <v>0.23</v>
       </c>
       <c r="N32" s="4">
+        <v>0.23</v>
+      </c>
+      <c r="O32" s="4">
         <v>26.4</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B33" s="5">
+        <v>22</v>
+      </c>
+      <c r="B33" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C33" s="5">
         <v>44658.0</v>
       </c>
-      <c r="C33" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D33" s="4">
+      <c r="D33" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33" s="4">
         <v>8.22</v>
       </c>
-      <c r="E33" s="4">
+      <c r="F33" s="4">
         <v>34100.0</v>
       </c>
-      <c r="F33" s="6">
+      <c r="G33" s="6">
         <v>55328.0</v>
       </c>
-      <c r="G33" s="4">
+      <c r="H33" s="4">
         <v>30550.0</v>
       </c>
-      <c r="H33" s="4">
+      <c r="I33" s="4">
         <v>0.58</v>
       </c>
-      <c r="I33" s="4">
+      <c r="J33" s="4">
         <v>7.01</v>
       </c>
-      <c r="J33" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="K33" s="4">
-        <v>0.0</v>
+      <c r="K33" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="L33" s="4">
-        <v>0.2</v>
+        <v>0.0</v>
       </c>
       <c r="M33" s="4">
         <v>0.2</v>
       </c>
       <c r="N33" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="O33" s="4">
         <v>26.5</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B34" s="5">
+        <v>23</v>
+      </c>
+      <c r="B34" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C34" s="5">
         <v>44658.0</v>
       </c>
-      <c r="C34" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D34" s="4">
+      <c r="D34" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E34" s="4">
         <v>8.19</v>
       </c>
-      <c r="E34" s="4">
+      <c r="F34" s="4">
         <v>34000.0</v>
       </c>
-      <c r="F34" s="6">
+      <c r="G34" s="6">
         <v>55279.0</v>
       </c>
-      <c r="G34" s="4">
+      <c r="H34" s="4">
         <v>30490.0</v>
       </c>
-      <c r="H34" s="4">
+      <c r="I34" s="4">
         <v>0.52</v>
       </c>
-      <c r="I34" s="4">
+      <c r="J34" s="4">
         <v>6.84</v>
-      </c>
-      <c r="J34" s="4">
-        <v>0.02</v>
       </c>
       <c r="K34" s="4">
         <v>0.02</v>
       </c>
       <c r="L34" s="4">
-        <v>0.21</v>
+        <v>0.02</v>
       </c>
       <c r="M34" s="4">
         <v>0.21</v>
       </c>
       <c r="N34" s="4">
+        <v>0.21</v>
+      </c>
+      <c r="O34" s="4">
         <v>26.9</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B35" s="5">
+        <v>33</v>
+      </c>
+      <c r="B35" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C35" s="5">
         <v>44658.0</v>
       </c>
-      <c r="C35" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D35" s="4">
+      <c r="D35" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E35" s="4">
         <v>8.19</v>
       </c>
-      <c r="E35" s="4">
+      <c r="F35" s="4">
         <v>34300.0</v>
       </c>
-      <c r="F35" s="6">
+      <c r="G35" s="6">
         <v>55157.0</v>
       </c>
-      <c r="G35" s="4">
+      <c r="H35" s="4">
         <v>30320.0</v>
       </c>
-      <c r="H35" s="4">
+      <c r="I35" s="4">
         <v>0.62</v>
       </c>
-      <c r="I35" s="4">
+      <c r="J35" s="4">
         <v>6.56</v>
       </c>
-      <c r="J35" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="K35" s="4">
-        <v>0.0</v>
+      <c r="K35" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="L35" s="4">
-        <v>0.2</v>
+        <v>0.0</v>
       </c>
       <c r="M35" s="4">
         <v>0.2</v>
       </c>
       <c r="N35" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="O35" s="4">
         <v>26.8</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B36" s="5">
+        <v>34</v>
+      </c>
+      <c r="B36" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C36" s="5">
         <v>44658.0</v>
       </c>
-      <c r="C36" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D36" s="4">
+      <c r="D36" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E36" s="4">
         <v>8.18</v>
       </c>
-      <c r="E36" s="4">
+      <c r="F36" s="4">
         <v>33700.0</v>
       </c>
-      <c r="F36" s="6">
+      <c r="G36" s="6">
         <v>54930.0</v>
       </c>
-      <c r="G36" s="4">
+      <c r="H36" s="4">
         <v>30550.0</v>
       </c>
-      <c r="H36" s="4">
+      <c r="I36" s="4">
         <v>0.65</v>
       </c>
-      <c r="I36" s="4">
+      <c r="J36" s="4">
         <v>6.6</v>
       </c>
-      <c r="J36" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="K36" s="4">
-        <v>0.0</v>
+      <c r="K36" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="L36" s="4">
-        <v>0.25</v>
+        <v>0.0</v>
       </c>
       <c r="M36" s="4">
         <v>0.25</v>
       </c>
       <c r="N36" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="O36" s="4">
         <v>26.4</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B37" s="5">
+        <v>19</v>
+      </c>
+      <c r="B37" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C37" s="5">
         <v>44658.0</v>
       </c>
-      <c r="C37" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D37" s="4">
+      <c r="D37" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E37" s="4">
         <v>8.17</v>
       </c>
-      <c r="E37" s="4">
+      <c r="F37" s="4">
         <v>34400.0</v>
       </c>
-      <c r="F37" s="6">
+      <c r="G37" s="6">
         <v>54374.0</v>
       </c>
-      <c r="G37" s="4">
+      <c r="H37" s="4">
         <v>30810.0</v>
       </c>
-      <c r="H37" s="4">
+      <c r="I37" s="4">
         <v>0.72</v>
       </c>
-      <c r="I37" s="4">
+      <c r="J37" s="4">
         <v>6.56</v>
       </c>
-      <c r="J37" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="K37" s="4">
-        <v>0.0</v>
+      <c r="K37" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="L37" s="4">
-        <v>0.26</v>
+        <v>0.0</v>
       </c>
       <c r="M37" s="4">
         <v>0.26</v>
       </c>
       <c r="N37" s="4">
+        <v>0.26</v>
+      </c>
+      <c r="O37" s="4">
         <v>26.6</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B38" s="8">
+        <v>26</v>
+      </c>
+      <c r="B38" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C38" s="8">
         <v>44810.0</v>
       </c>
-      <c r="C38" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D38" s="7">
+      <c r="D38" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E38" s="7">
         <v>7.93</v>
       </c>
-      <c r="E38" s="7">
+      <c r="F38" s="7">
         <v>33620.0</v>
       </c>
-      <c r="F38" s="7">
+      <c r="G38" s="7">
         <v>48980.0</v>
       </c>
-      <c r="G38" s="7">
+      <c r="H38" s="7">
         <v>30890.0</v>
       </c>
-      <c r="H38" s="7">
+      <c r="I38" s="7">
         <v>0.19</v>
       </c>
-      <c r="I38" s="7">
+      <c r="J38" s="7">
         <v>6.16</v>
       </c>
-      <c r="J38" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K38" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="L38" s="7">
-        <v>0.03</v>
+      <c r="K38" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L38" s="9">
+        <v>0.0</v>
       </c>
       <c r="M38" s="7">
         <v>0.03</v>
       </c>
       <c r="N38" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="O38" s="7">
         <v>29.8</v>
       </c>
-      <c r="O38" s="10"/>
       <c r="P38" s="10"/>
       <c r="Q38" s="10"/>
       <c r="R38" s="10"/>
@@ -2250,51 +2420,54 @@
       <c r="X38" s="10"/>
       <c r="Y38" s="10"/>
       <c r="Z38" s="10"/>
+      <c r="AA38" s="10"/>
     </row>
     <row r="39">
       <c r="A39" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B39" s="8">
+        <v>25</v>
+      </c>
+      <c r="B39" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C39" s="8">
         <v>44810.0</v>
       </c>
-      <c r="C39" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D39" s="7">
+      <c r="D39" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E39" s="7">
         <v>8.12</v>
       </c>
-      <c r="E39" s="7">
+      <c r="F39" s="7">
         <v>35390.0</v>
       </c>
-      <c r="F39" s="7">
+      <c r="G39" s="7">
         <v>51830.0</v>
       </c>
-      <c r="G39" s="7">
+      <c r="H39" s="7">
         <v>32460.0</v>
       </c>
-      <c r="H39" s="7">
+      <c r="I39" s="7">
         <v>0.32</v>
       </c>
-      <c r="I39" s="7">
+      <c r="J39" s="7">
         <v>6.66</v>
-      </c>
-      <c r="J39" s="7">
-        <v>0.01</v>
       </c>
       <c r="K39" s="7">
         <v>0.01</v>
       </c>
       <c r="L39" s="7">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="M39" s="7">
         <v>0.03</v>
       </c>
       <c r="N39" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="O39" s="7">
         <v>29.4</v>
       </c>
-      <c r="O39" s="10"/>
       <c r="P39" s="10"/>
       <c r="Q39" s="10"/>
       <c r="R39" s="10"/>
@@ -2306,51 +2479,54 @@
       <c r="X39" s="10"/>
       <c r="Y39" s="10"/>
       <c r="Z39" s="10"/>
+      <c r="AA39" s="10"/>
     </row>
     <row r="40">
       <c r="A40" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B40" s="8">
+        <v>17</v>
+      </c>
+      <c r="B40" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C40" s="8">
         <v>44810.0</v>
       </c>
-      <c r="C40" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D40" s="7">
+      <c r="D40" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E40" s="7">
         <v>8.21</v>
       </c>
-      <c r="E40" s="7">
+      <c r="F40" s="7">
         <v>35440.0</v>
       </c>
-      <c r="F40" s="7">
+      <c r="G40" s="7">
         <v>51330.0</v>
       </c>
-      <c r="G40" s="7">
+      <c r="H40" s="7">
         <v>32520.0</v>
       </c>
-      <c r="H40" s="7">
+      <c r="I40" s="7">
         <v>0.36</v>
       </c>
-      <c r="I40" s="7">
+      <c r="J40" s="7">
         <v>7.23</v>
       </c>
-      <c r="J40" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K40" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="L40" s="7">
-        <v>0.03</v>
+      <c r="K40" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L40" s="9">
+        <v>0.0</v>
       </c>
       <c r="M40" s="7">
         <v>0.03</v>
       </c>
       <c r="N40" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="O40" s="7">
         <v>29.4</v>
       </c>
-      <c r="O40" s="10"/>
       <c r="P40" s="10"/>
       <c r="Q40" s="10"/>
       <c r="R40" s="10"/>
@@ -2362,51 +2538,54 @@
       <c r="X40" s="10"/>
       <c r="Y40" s="10"/>
       <c r="Z40" s="10"/>
+      <c r="AA40" s="10"/>
     </row>
     <row r="41">
       <c r="A41" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B41" s="8">
+        <v>18</v>
+      </c>
+      <c r="B41" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C41" s="8">
         <v>44810.0</v>
       </c>
-      <c r="C41" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D41" s="7">
+      <c r="D41" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E41" s="7">
         <v>8.1</v>
       </c>
-      <c r="E41" s="7">
+      <c r="F41" s="7">
         <v>35590.0</v>
       </c>
-      <c r="F41" s="7">
+      <c r="G41" s="7">
         <v>51410.0</v>
       </c>
-      <c r="G41" s="7">
+      <c r="H41" s="7">
         <v>32210.0</v>
       </c>
-      <c r="H41" s="7">
+      <c r="I41" s="7">
         <v>0.53</v>
       </c>
-      <c r="I41" s="7">
+      <c r="J41" s="7">
         <v>5.75</v>
       </c>
-      <c r="J41" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K41" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="L41" s="7">
-        <v>0.02</v>
+      <c r="K41" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L41" s="9">
+        <v>0.0</v>
       </c>
       <c r="M41" s="7">
         <v>0.02</v>
       </c>
       <c r="N41" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="O41" s="7">
         <v>29.4</v>
       </c>
-      <c r="O41" s="10"/>
       <c r="P41" s="10"/>
       <c r="Q41" s="10"/>
       <c r="R41" s="10"/>
@@ -2418,51 +2597,54 @@
       <c r="X41" s="10"/>
       <c r="Y41" s="10"/>
       <c r="Z41" s="10"/>
+      <c r="AA41" s="10"/>
     </row>
     <row r="42">
       <c r="A42" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B42" s="8">
+        <v>29</v>
+      </c>
+      <c r="B42" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C42" s="8">
         <v>44810.0</v>
       </c>
-      <c r="C42" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D42" s="7">
+      <c r="D42" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E42" s="7">
         <v>8.11</v>
       </c>
-      <c r="E42" s="7">
+      <c r="F42" s="7">
         <v>35790.0</v>
       </c>
-      <c r="F42" s="7">
+      <c r="G42" s="7">
         <v>51520.0</v>
       </c>
-      <c r="G42" s="7">
+      <c r="H42" s="7">
         <v>32630.0</v>
       </c>
-      <c r="H42" s="7">
+      <c r="I42" s="7">
         <v>0.37</v>
       </c>
-      <c r="I42" s="7">
+      <c r="J42" s="7">
         <v>5.89</v>
       </c>
-      <c r="J42" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K42" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="L42" s="7">
-        <v>0.04</v>
+      <c r="K42" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L42" s="9">
+        <v>0.0</v>
       </c>
       <c r="M42" s="7">
         <v>0.04</v>
       </c>
       <c r="N42" s="7">
+        <v>0.04</v>
+      </c>
+      <c r="O42" s="7">
         <v>29.5</v>
       </c>
-      <c r="O42" s="10"/>
       <c r="P42" s="10"/>
       <c r="Q42" s="10"/>
       <c r="R42" s="10"/>
@@ -2474,37 +2656,38 @@
       <c r="X42" s="10"/>
       <c r="Y42" s="10"/>
       <c r="Z42" s="10"/>
+      <c r="AA42" s="10"/>
     </row>
     <row r="43">
       <c r="A43" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B43" s="8">
+        <v>19</v>
+      </c>
+      <c r="B43" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C43" s="8">
         <v>44810.0</v>
       </c>
-      <c r="C43" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D43" s="7">
+      <c r="D43" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E43" s="7">
         <v>7.98</v>
       </c>
-      <c r="E43" s="7">
+      <c r="F43" s="7">
         <v>35610.0</v>
       </c>
-      <c r="F43" s="7">
+      <c r="G43" s="7">
         <v>51920.0</v>
       </c>
-      <c r="G43" s="7">
+      <c r="H43" s="7">
         <v>32650.0</v>
       </c>
-      <c r="H43" s="7">
+      <c r="I43" s="7">
         <v>1.2</v>
       </c>
-      <c r="I43" s="7">
+      <c r="J43" s="7">
         <v>3.95</v>
-      </c>
-      <c r="J43" s="7">
-        <v>0.02</v>
       </c>
       <c r="K43" s="7">
         <v>0.02</v>
@@ -2516,9 +2699,11 @@
         <v>0.02</v>
       </c>
       <c r="N43" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="O43" s="7">
         <v>29.6</v>
       </c>
-      <c r="O43" s="10"/>
       <c r="P43" s="10"/>
       <c r="Q43" s="10"/>
       <c r="R43" s="10"/>
@@ -2530,37 +2715,38 @@
       <c r="X43" s="10"/>
       <c r="Y43" s="10"/>
       <c r="Z43" s="10"/>
+      <c r="AA43" s="10"/>
     </row>
     <row r="44">
       <c r="A44" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B44" s="8">
+        <v>27</v>
+      </c>
+      <c r="B44" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C44" s="8">
         <v>44810.0</v>
       </c>
-      <c r="C44" s="7">
+      <c r="D44" s="7">
         <v>3.0</v>
       </c>
-      <c r="D44" s="7">
+      <c r="E44" s="7">
         <v>7.83</v>
       </c>
-      <c r="E44" s="7">
+      <c r="F44" s="7">
         <v>36260.0</v>
       </c>
-      <c r="F44" s="7">
+      <c r="G44" s="7">
         <v>50570.0</v>
       </c>
-      <c r="G44" s="7">
+      <c r="H44" s="7">
         <v>32240.0</v>
       </c>
-      <c r="H44" s="7">
+      <c r="I44" s="7">
         <v>2.22</v>
       </c>
-      <c r="I44" s="7">
+      <c r="J44" s="7">
         <v>3.55</v>
-      </c>
-      <c r="J44" s="7">
-        <v>0.02</v>
       </c>
       <c r="K44" s="7">
         <v>0.02</v>
@@ -2572,9 +2758,11 @@
         <v>0.02</v>
       </c>
       <c r="N44" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="O44" s="7">
         <v>29.7</v>
       </c>
-      <c r="O44" s="10"/>
       <c r="P44" s="10"/>
       <c r="Q44" s="10"/>
       <c r="R44" s="10"/>
@@ -2586,51 +2774,54 @@
       <c r="X44" s="10"/>
       <c r="Y44" s="10"/>
       <c r="Z44" s="10"/>
+      <c r="AA44" s="10"/>
     </row>
     <row r="45">
       <c r="A45" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B45" s="8">
+        <v>28</v>
+      </c>
+      <c r="B45" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C45" s="8">
         <v>44810.0</v>
       </c>
-      <c r="C45" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D45" s="7">
+      <c r="D45" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E45" s="7">
         <v>7.89</v>
       </c>
-      <c r="E45" s="7">
+      <c r="F45" s="7">
         <v>34980.0</v>
       </c>
-      <c r="F45" s="7">
+      <c r="G45" s="7">
         <v>50620.0</v>
       </c>
-      <c r="G45" s="7">
+      <c r="H45" s="7">
         <v>32070.0</v>
       </c>
-      <c r="H45" s="7">
+      <c r="I45" s="7">
         <v>0.93</v>
       </c>
-      <c r="I45" s="7">
+      <c r="J45" s="7">
         <v>4.74</v>
       </c>
-      <c r="J45" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K45" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="L45" s="7">
-        <v>0.02</v>
+      <c r="K45" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L45" s="9">
+        <v>0.0</v>
       </c>
       <c r="M45" s="7">
         <v>0.02</v>
       </c>
       <c r="N45" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="O45" s="7">
         <v>29.8</v>
       </c>
-      <c r="O45" s="10"/>
       <c r="P45" s="10"/>
       <c r="Q45" s="10"/>
       <c r="R45" s="10"/>
@@ -2642,51 +2833,54 @@
       <c r="X45" s="10"/>
       <c r="Y45" s="10"/>
       <c r="Z45" s="10"/>
+      <c r="AA45" s="10"/>
     </row>
     <row r="46">
       <c r="A46" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B46" s="8">
+        <v>20</v>
+      </c>
+      <c r="B46" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C46" s="8">
         <v>44810.0</v>
       </c>
-      <c r="C46" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D46" s="7">
+      <c r="D46" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E46" s="7">
         <v>8.11</v>
       </c>
-      <c r="E46" s="7">
+      <c r="F46" s="7">
         <v>34590.0</v>
       </c>
-      <c r="F46" s="7">
+      <c r="G46" s="7">
         <v>49990.0</v>
       </c>
-      <c r="G46" s="7">
+      <c r="H46" s="7">
         <v>31730.0</v>
       </c>
-      <c r="H46" s="7">
+      <c r="I46" s="7">
         <v>0.87</v>
       </c>
-      <c r="I46" s="7">
+      <c r="J46" s="7">
         <v>5.1</v>
-      </c>
-      <c r="J46" s="7">
-        <v>0.01</v>
       </c>
       <c r="K46" s="7">
         <v>0.01</v>
       </c>
       <c r="L46" s="7">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="M46" s="7">
         <v>0.05</v>
       </c>
       <c r="N46" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="O46" s="7">
         <v>29.7</v>
       </c>
-      <c r="O46" s="10"/>
       <c r="P46" s="10"/>
       <c r="Q46" s="10"/>
       <c r="R46" s="10"/>
@@ -2698,51 +2892,54 @@
       <c r="X46" s="10"/>
       <c r="Y46" s="10"/>
       <c r="Z46" s="10"/>
+      <c r="AA46" s="10"/>
     </row>
     <row r="47">
       <c r="A47" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B47" s="8">
+        <v>32</v>
+      </c>
+      <c r="B47" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C47" s="8">
         <v>44810.0</v>
       </c>
-      <c r="C47" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D47" s="7">
+      <c r="D47" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E47" s="7">
         <v>8.01</v>
       </c>
-      <c r="E47" s="7">
+      <c r="F47" s="7">
         <v>34770.0</v>
       </c>
-      <c r="F47" s="7">
+      <c r="G47" s="7">
         <v>50440.0</v>
       </c>
-      <c r="G47" s="7">
+      <c r="H47" s="7">
         <v>31940.0</v>
       </c>
-      <c r="H47" s="7">
+      <c r="I47" s="7">
         <v>0.56</v>
       </c>
-      <c r="I47" s="7">
+      <c r="J47" s="7">
         <v>5.5</v>
-      </c>
-      <c r="J47" s="7">
-        <v>0.03</v>
       </c>
       <c r="K47" s="7">
         <v>0.03</v>
       </c>
       <c r="L47" s="7">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="M47" s="7">
         <v>0.05</v>
       </c>
       <c r="N47" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="O47" s="7">
         <v>29.8</v>
       </c>
-      <c r="O47" s="10"/>
       <c r="P47" s="10"/>
       <c r="Q47" s="10"/>
       <c r="R47" s="10"/>
@@ -2754,51 +2951,54 @@
       <c r="X47" s="10"/>
       <c r="Y47" s="10"/>
       <c r="Z47" s="10"/>
+      <c r="AA47" s="10"/>
     </row>
     <row r="48">
       <c r="A48" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B48" s="8">
+        <v>30</v>
+      </c>
+      <c r="B48" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C48" s="8">
         <v>44810.0</v>
       </c>
-      <c r="C48" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D48" s="7">
+      <c r="D48" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E48" s="7">
         <v>7.79</v>
       </c>
-      <c r="E48" s="7">
+      <c r="F48" s="7">
         <v>35270.0</v>
       </c>
-      <c r="F48" s="7">
+      <c r="G48" s="7">
         <v>51090.0</v>
       </c>
-      <c r="G48" s="7">
+      <c r="H48" s="7">
         <v>32450.0</v>
       </c>
-      <c r="H48" s="7">
+      <c r="I48" s="7">
         <v>3.52</v>
       </c>
-      <c r="I48" s="7">
+      <c r="J48" s="7">
         <v>3.58</v>
       </c>
-      <c r="J48" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K48" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="L48" s="7">
-        <v>0.08</v>
+      <c r="K48" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L48" s="9">
+        <v>0.0</v>
       </c>
       <c r="M48" s="7">
         <v>0.08</v>
       </c>
       <c r="N48" s="7">
+        <v>0.08</v>
+      </c>
+      <c r="O48" s="7">
         <v>30.0</v>
       </c>
-      <c r="O48" s="10"/>
       <c r="P48" s="10"/>
       <c r="Q48" s="10"/>
       <c r="R48" s="10"/>
@@ -2810,51 +3010,54 @@
       <c r="X48" s="10"/>
       <c r="Y48" s="10"/>
       <c r="Z48" s="10"/>
+      <c r="AA48" s="10"/>
     </row>
     <row r="49">
       <c r="A49" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B49" s="8">
+        <v>31</v>
+      </c>
+      <c r="B49" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C49" s="8">
         <v>44810.0</v>
       </c>
-      <c r="C49" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D49" s="7">
+      <c r="D49" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E49" s="7">
         <v>7.86</v>
       </c>
-      <c r="E49" s="7">
+      <c r="F49" s="7">
         <v>34950.0</v>
       </c>
-      <c r="F49" s="7">
+      <c r="G49" s="7">
         <v>50560.0</v>
       </c>
-      <c r="G49" s="7">
+      <c r="H49" s="7">
         <v>32090.0</v>
       </c>
-      <c r="H49" s="7">
+      <c r="I49" s="7">
         <v>0.96</v>
       </c>
-      <c r="I49" s="7">
+      <c r="J49" s="7">
         <v>4.7</v>
-      </c>
-      <c r="J49" s="7">
-        <v>0.02</v>
       </c>
       <c r="K49" s="7">
         <v>0.02</v>
       </c>
       <c r="L49" s="7">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="M49" s="7">
         <v>0.03</v>
       </c>
       <c r="N49" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="O49" s="7">
         <v>30.1</v>
       </c>
-      <c r="O49" s="10"/>
       <c r="P49" s="10"/>
       <c r="Q49" s="10"/>
       <c r="R49" s="10"/>
@@ -2866,37 +3069,38 @@
       <c r="X49" s="10"/>
       <c r="Y49" s="10"/>
       <c r="Z49" s="10"/>
+      <c r="AA49" s="10"/>
     </row>
     <row r="50">
       <c r="A50" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B50" s="8">
+        <v>22</v>
+      </c>
+      <c r="B50" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C50" s="8">
         <v>44810.0</v>
       </c>
-      <c r="C50" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D50" s="7">
+      <c r="D50" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E50" s="7">
         <v>7.88</v>
       </c>
-      <c r="E50" s="7">
+      <c r="F50" s="7">
         <v>34480.0</v>
       </c>
-      <c r="F50" s="7">
+      <c r="G50" s="7">
         <v>50010.0</v>
       </c>
-      <c r="G50" s="7">
+      <c r="H50" s="7">
         <v>31530.0</v>
       </c>
-      <c r="H50" s="7">
+      <c r="I50" s="7">
         <v>0.89</v>
       </c>
-      <c r="I50" s="7">
+      <c r="J50" s="7">
         <v>7.81</v>
-      </c>
-      <c r="J50" s="7">
-        <v>0.02</v>
       </c>
       <c r="K50" s="7">
         <v>0.02</v>
@@ -2908,9 +3112,11 @@
         <v>0.02</v>
       </c>
       <c r="N50" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="O50" s="7">
         <v>29.8</v>
       </c>
-      <c r="O50" s="10"/>
       <c r="P50" s="10"/>
       <c r="Q50" s="10"/>
       <c r="R50" s="10"/>
@@ -2922,51 +3128,54 @@
       <c r="X50" s="10"/>
       <c r="Y50" s="10"/>
       <c r="Z50" s="10"/>
+      <c r="AA50" s="10"/>
     </row>
     <row r="51">
       <c r="A51" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B51" s="8">
+        <v>23</v>
+      </c>
+      <c r="B51" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C51" s="8">
         <v>44810.0</v>
       </c>
-      <c r="C51" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D51" s="7">
+      <c r="D51" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E51" s="7">
         <v>8.22</v>
       </c>
-      <c r="E51" s="7">
+      <c r="F51" s="7">
         <v>33270.0</v>
       </c>
-      <c r="F51" s="7">
+      <c r="G51" s="7">
         <v>47430.0</v>
       </c>
-      <c r="G51" s="7">
+      <c r="H51" s="7">
         <v>30320.0</v>
       </c>
-      <c r="H51" s="7">
+      <c r="I51" s="7">
         <v>0.43</v>
       </c>
-      <c r="I51" s="7">
+      <c r="J51" s="7">
         <v>8.02</v>
-      </c>
-      <c r="J51" s="7">
-        <v>0.02</v>
       </c>
       <c r="K51" s="7">
         <v>0.02</v>
       </c>
       <c r="L51" s="7">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="M51" s="7">
         <v>0.03</v>
       </c>
       <c r="N51" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="O51" s="7">
         <v>29.9</v>
       </c>
-      <c r="O51" s="10"/>
       <c r="P51" s="10"/>
       <c r="Q51" s="10"/>
       <c r="R51" s="10"/>
@@ -2978,51 +3187,54 @@
       <c r="X51" s="10"/>
       <c r="Y51" s="10"/>
       <c r="Z51" s="10"/>
+      <c r="AA51" s="10"/>
     </row>
     <row r="52">
       <c r="A52" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B52" s="8">
+        <v>33</v>
+      </c>
+      <c r="B52" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C52" s="8">
         <v>44810.0</v>
       </c>
-      <c r="C52" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D52" s="7">
+      <c r="D52" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E52" s="7">
         <v>8.15</v>
       </c>
-      <c r="E52" s="7">
+      <c r="F52" s="7">
         <v>33500.0</v>
       </c>
-      <c r="F52" s="7">
+      <c r="G52" s="7">
         <v>48830.0</v>
       </c>
-      <c r="G52" s="7">
+      <c r="H52" s="7">
         <v>30830.0</v>
       </c>
-      <c r="H52" s="7">
+      <c r="I52" s="7">
         <v>0.45</v>
       </c>
-      <c r="I52" s="7">
+      <c r="J52" s="7">
         <v>6.28</v>
       </c>
-      <c r="J52" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K52" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="L52" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="M52" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="N52" s="7">
+      <c r="K52" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L52" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="M52" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="N52" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="O52" s="7">
         <v>29.6</v>
       </c>
-      <c r="O52" s="10"/>
       <c r="P52" s="10"/>
       <c r="Q52" s="10"/>
       <c r="R52" s="10"/>
@@ -3034,51 +3246,54 @@
       <c r="X52" s="10"/>
       <c r="Y52" s="10"/>
       <c r="Z52" s="10"/>
+      <c r="AA52" s="10"/>
     </row>
     <row r="53">
       <c r="A53" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B53" s="11">
+        <v>34</v>
+      </c>
+      <c r="B53" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C53" s="11">
         <v>44810.0</v>
       </c>
-      <c r="C53" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D53" s="12">
+      <c r="D53" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E53" s="12">
         <v>8.23</v>
       </c>
-      <c r="E53" s="12">
+      <c r="F53" s="12">
         <v>34960.0</v>
       </c>
-      <c r="F53" s="12">
+      <c r="G53" s="12">
         <v>50660.0</v>
       </c>
-      <c r="G53" s="12">
+      <c r="H53" s="12">
         <v>30600.0</v>
       </c>
-      <c r="H53" s="12">
+      <c r="I53" s="12">
         <v>0.86</v>
       </c>
-      <c r="I53" s="12">
+      <c r="J53" s="12">
         <v>6.97</v>
-      </c>
-      <c r="J53" s="12">
-        <v>0.02</v>
       </c>
       <c r="K53" s="12">
         <v>0.02</v>
       </c>
-      <c r="L53" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="M53" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="N53" s="12">
+      <c r="L53" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="M53" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="N53" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="O53" s="12">
         <v>29.3</v>
       </c>
-      <c r="O53" s="10"/>
       <c r="P53" s="10"/>
       <c r="Q53" s="10"/>
       <c r="R53" s="10"/>
@@ -3090,505 +3305,1881 @@
       <c r="X53" s="10"/>
       <c r="Y53" s="10"/>
       <c r="Z53" s="10"/>
+      <c r="AA53" s="10"/>
     </row>
     <row r="54">
       <c r="A54" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B54" s="11">
+        <v>26</v>
+      </c>
+      <c r="B54" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C54" s="11">
         <v>45029.0</v>
       </c>
-      <c r="C54" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D54" s="16">
+      <c r="D54" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E54" s="16">
         <v>8.02</v>
       </c>
-      <c r="E54" s="15">
+      <c r="F54" s="15">
         <v>37400.0</v>
       </c>
-      <c r="F54" s="15">
+      <c r="G54" s="15">
         <v>53400.0</v>
       </c>
-      <c r="G54" s="15">
+      <c r="H54" s="15">
         <v>34200.0</v>
       </c>
-      <c r="H54" s="16">
+      <c r="I54" s="16">
         <v>0.65</v>
       </c>
-      <c r="I54" s="17">
+      <c r="J54" s="17">
         <v>3.19</v>
-      </c>
-      <c r="J54" s="16">
-        <v>0.02</v>
       </c>
       <c r="K54" s="16">
         <v>0.02</v>
       </c>
       <c r="L54" s="16">
-        <v>0.08</v>
+        <v>0.02</v>
       </c>
       <c r="M54" s="16">
         <v>0.08</v>
       </c>
       <c r="N54" s="16">
+        <v>0.08</v>
+      </c>
+      <c r="O54" s="16">
         <v>26.9</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B55" s="11">
+        <v>25</v>
+      </c>
+      <c r="B55" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C55" s="11">
         <v>45029.0</v>
       </c>
-      <c r="C55" s="16">
-        <v>1.0</v>
-      </c>
       <c r="D55" s="16">
+        <v>1.0</v>
+      </c>
+      <c r="E55" s="16">
         <v>8.13</v>
       </c>
-      <c r="E55" s="15">
+      <c r="F55" s="15">
         <v>37400.0</v>
       </c>
-      <c r="F55" s="15">
+      <c r="G55" s="15">
         <v>53400.0</v>
       </c>
-      <c r="G55" s="15">
+      <c r="H55" s="15">
         <v>34100.0</v>
       </c>
-      <c r="H55" s="16">
+      <c r="I55" s="16">
         <v>0.86</v>
       </c>
-      <c r="I55" s="16">
+      <c r="J55" s="16">
         <v>6.74</v>
       </c>
-      <c r="J55" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="K55" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="L55" s="16">
-        <v>0.33</v>
+      <c r="K55" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="L55" s="15">
+        <v>0.0</v>
       </c>
       <c r="M55" s="16">
         <v>0.33</v>
       </c>
       <c r="N55" s="16">
+        <v>0.33</v>
+      </c>
+      <c r="O55" s="16">
         <v>26.5</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B56" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C56" s="11">
+        <v>45029.0</v>
+      </c>
+      <c r="D56" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E56" s="16">
+        <v>8.15</v>
+      </c>
+      <c r="F56" s="15">
+        <v>38000.0</v>
+      </c>
+      <c r="G56" s="18">
+        <v>54300.0</v>
+      </c>
+      <c r="H56" s="15">
+        <v>34700.0</v>
+      </c>
+      <c r="I56" s="16">
+        <v>0.17</v>
+      </c>
+      <c r="J56" s="16">
+        <v>6.8</v>
+      </c>
+      <c r="K56" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B56" s="11">
-        <v>45029.0</v>
-      </c>
-      <c r="C56" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D56" s="16">
-        <v>8.15</v>
-      </c>
-      <c r="E56" s="15">
-        <v>38000.0</v>
-      </c>
-      <c r="F56" s="18">
-        <v>54300.0</v>
-      </c>
-      <c r="G56" s="15">
-        <v>34700.0</v>
-      </c>
-      <c r="H56" s="16">
-        <v>0.17</v>
-      </c>
-      <c r="I56" s="16">
-        <v>6.8</v>
-      </c>
-      <c r="J56" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="K56" s="15">
-        <v>0.0</v>
-      </c>
       <c r="L56" s="15">
-        <v>0.06</v>
+        <v>0.0</v>
       </c>
       <c r="M56" s="15">
         <v>0.06</v>
       </c>
-      <c r="N56" s="16">
+      <c r="N56" s="15">
+        <v>0.06</v>
+      </c>
+      <c r="O56" s="16">
         <v>26.6</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B57" s="11">
+        <v>17</v>
+      </c>
+      <c r="B57" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C57" s="11">
         <v>45029.0</v>
       </c>
-      <c r="C57" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D57" s="16">
+      <c r="D57" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E57" s="16">
         <v>8.2</v>
       </c>
-      <c r="E57" s="15">
+      <c r="F57" s="15">
         <v>37700.0</v>
       </c>
-      <c r="F57" s="15">
+      <c r="G57" s="15">
         <v>54100.0</v>
       </c>
-      <c r="G57" s="15">
+      <c r="H57" s="15">
         <v>34400.0</v>
       </c>
-      <c r="H57" s="16">
+      <c r="I57" s="16">
         <v>0.41</v>
       </c>
-      <c r="I57" s="16">
+      <c r="J57" s="16">
         <v>6.7</v>
-      </c>
-      <c r="J57" s="16">
-        <v>0.02</v>
       </c>
       <c r="K57" s="16">
         <v>0.02</v>
       </c>
       <c r="L57" s="16">
-        <v>0.11</v>
+        <v>0.02</v>
       </c>
       <c r="M57" s="16">
         <v>0.11</v>
       </c>
       <c r="N57" s="16">
+        <v>0.11</v>
+      </c>
+      <c r="O57" s="16">
         <v>26.5</v>
       </c>
     </row>
     <row r="58" ht="15.0" customHeight="1">
       <c r="A58" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B58" s="11">
+        <v>18</v>
+      </c>
+      <c r="B58" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C58" s="11">
         <v>45029.0</v>
       </c>
-      <c r="C58" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D58" s="16">
+      <c r="D58" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E58" s="16">
         <v>8.17</v>
       </c>
-      <c r="E58" s="15">
+      <c r="F58" s="15">
         <v>37600.0</v>
       </c>
-      <c r="F58" s="18">
+      <c r="G58" s="18">
         <v>53800.0</v>
       </c>
-      <c r="G58" s="16">
+      <c r="H58" s="16">
         <v>34400.0</v>
       </c>
-      <c r="H58" s="16">
+      <c r="I58" s="16">
         <v>0.32</v>
       </c>
-      <c r="I58" s="16">
+      <c r="J58" s="16">
         <v>5.86</v>
-      </c>
-      <c r="J58" s="16">
-        <v>0.01</v>
       </c>
       <c r="K58" s="16">
         <v>0.01</v>
       </c>
       <c r="L58" s="16">
-        <v>0.62</v>
+        <v>0.01</v>
       </c>
       <c r="M58" s="16">
         <v>0.62</v>
       </c>
       <c r="N58" s="16">
+        <v>0.62</v>
+      </c>
+      <c r="O58" s="16">
         <v>26.7</v>
       </c>
     </row>
     <row r="59" ht="15.0" customHeight="1">
       <c r="A59" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B59" s="11">
+        <v>19</v>
+      </c>
+      <c r="B59" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C59" s="11">
         <v>45029.0</v>
       </c>
-      <c r="C59" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D59" s="16">
+      <c r="D59" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E59" s="16">
         <v>8.12</v>
       </c>
-      <c r="E59" s="18">
+      <c r="F59" s="18">
         <v>37800.0</v>
       </c>
-      <c r="F59" s="19">
+      <c r="G59" s="19">
         <v>53500.0</v>
       </c>
-      <c r="G59" s="20">
+      <c r="H59" s="20">
         <v>34500.0</v>
       </c>
-      <c r="H59" s="16">
+      <c r="I59" s="16">
         <v>0.35</v>
       </c>
-      <c r="I59" s="16">
+      <c r="J59" s="16">
         <v>5.56</v>
       </c>
-      <c r="J59" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="K59" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="L59" s="16">
-        <v>0.68</v>
+      <c r="K59" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="L59" s="15">
+        <v>0.0</v>
       </c>
       <c r="M59" s="16">
         <v>0.68</v>
       </c>
-      <c r="N59" s="18">
+      <c r="N59" s="16">
+        <v>0.68</v>
+      </c>
+      <c r="O59" s="18">
         <v>26.9</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B60" s="11">
+        <v>20</v>
+      </c>
+      <c r="B60" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C60" s="11">
         <v>45029.0</v>
       </c>
-      <c r="C60" s="16">
+      <c r="D60" s="16">
         <v>3.0</v>
       </c>
-      <c r="D60" s="16">
+      <c r="E60" s="16">
         <v>8.19</v>
       </c>
-      <c r="E60" s="15">
+      <c r="F60" s="15">
         <v>37400.0</v>
       </c>
-      <c r="F60" s="15">
+      <c r="G60" s="15">
         <v>53500.0</v>
       </c>
-      <c r="G60" s="16">
+      <c r="H60" s="16">
         <v>34100.0</v>
       </c>
-      <c r="H60" s="16">
+      <c r="I60" s="16">
         <v>0.51</v>
       </c>
-      <c r="I60" s="16">
+      <c r="J60" s="16">
         <v>5.41</v>
-      </c>
-      <c r="J60" s="16">
-        <v>0.03</v>
       </c>
       <c r="K60" s="16">
         <v>0.03</v>
       </c>
       <c r="L60" s="16">
-        <v>0.49</v>
+        <v>0.03</v>
       </c>
       <c r="M60" s="16">
         <v>0.49</v>
       </c>
-      <c r="N60" s="21">
+      <c r="N60" s="16">
+        <v>0.49</v>
+      </c>
+      <c r="O60" s="21">
         <v>26.8</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B61" s="11">
+        <v>22</v>
+      </c>
+      <c r="B61" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C61" s="11">
         <v>45029.0</v>
       </c>
-      <c r="C61" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D61" s="16">
+      <c r="D61" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E61" s="16">
         <v>8.2</v>
       </c>
-      <c r="E61" s="15">
+      <c r="F61" s="15">
         <v>37400.0</v>
       </c>
-      <c r="F61" s="15">
+      <c r="G61" s="15">
         <v>53500.0</v>
       </c>
-      <c r="G61" s="17">
+      <c r="H61" s="17">
         <v>34100.0</v>
       </c>
-      <c r="H61" s="16">
+      <c r="I61" s="16">
         <v>0.89</v>
       </c>
-      <c r="I61" s="16">
+      <c r="J61" s="16">
         <v>5.43</v>
-      </c>
-      <c r="J61" s="16">
-        <v>0.01</v>
       </c>
       <c r="K61" s="16">
         <v>0.01</v>
       </c>
       <c r="L61" s="16">
-        <v>0.09</v>
+        <v>0.01</v>
       </c>
       <c r="M61" s="16">
         <v>0.09</v>
       </c>
       <c r="N61" s="16">
+        <v>0.09</v>
+      </c>
+      <c r="O61" s="16">
         <v>26.7</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B62" s="11">
+        <v>23</v>
+      </c>
+      <c r="B62" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C62" s="11">
         <v>45029.0</v>
       </c>
-      <c r="C62" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D62" s="16">
+      <c r="D62" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E62" s="16">
         <v>8.18</v>
       </c>
-      <c r="E62" s="15">
+      <c r="F62" s="15">
         <v>38000.0</v>
       </c>
-      <c r="F62" s="15">
+      <c r="G62" s="15">
         <v>54400.0</v>
       </c>
-      <c r="G62" s="16">
+      <c r="H62" s="16">
         <v>34800.0</v>
       </c>
-      <c r="H62" s="16">
+      <c r="I62" s="16">
         <v>0.62</v>
       </c>
-      <c r="I62" s="18">
+      <c r="J62" s="18">
         <v>6.0</v>
-      </c>
-      <c r="J62" s="16">
-        <v>0.01</v>
       </c>
       <c r="K62" s="16">
         <v>0.01</v>
       </c>
-      <c r="L62" s="18">
-        <v>0.07</v>
+      <c r="L62" s="16">
+        <v>0.01</v>
       </c>
       <c r="M62" s="18">
         <v>0.07</v>
       </c>
-      <c r="N62" s="16">
+      <c r="N62" s="18">
+        <v>0.07</v>
+      </c>
+      <c r="O62" s="16">
         <v>27.1</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B63" s="11">
+        <v>33</v>
+      </c>
+      <c r="B63" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C63" s="11">
         <v>45029.0</v>
       </c>
-      <c r="C63" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D63" s="16">
+      <c r="D63" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E63" s="16">
         <v>8.22</v>
       </c>
-      <c r="E63" s="15">
+      <c r="F63" s="15">
         <v>37800.0</v>
       </c>
-      <c r="F63" s="15">
+      <c r="G63" s="15">
         <v>54000.0</v>
       </c>
-      <c r="G63" s="16">
+      <c r="H63" s="16">
         <v>34800.0</v>
       </c>
-      <c r="H63" s="16">
+      <c r="I63" s="16">
         <v>0.15</v>
       </c>
-      <c r="I63" s="16">
+      <c r="J63" s="16">
         <v>4.82</v>
-      </c>
-      <c r="J63" s="16">
-        <v>0.02</v>
       </c>
       <c r="K63" s="16">
         <v>0.02</v>
       </c>
       <c r="L63" s="16">
-        <v>0.3</v>
+        <v>0.02</v>
       </c>
       <c r="M63" s="16">
         <v>0.3</v>
       </c>
       <c r="N63" s="16">
+        <v>0.3</v>
+      </c>
+      <c r="O63" s="16">
         <v>26.5</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B64" s="11">
+        <v>34</v>
+      </c>
+      <c r="B64" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C64" s="11">
         <v>45029.0</v>
       </c>
-      <c r="C64" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D64" s="16">
+      <c r="D64" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E64" s="16">
         <v>8.17</v>
       </c>
-      <c r="E64" s="15">
+      <c r="F64" s="15">
         <v>38200.0</v>
       </c>
-      <c r="F64" s="15">
+      <c r="G64" s="15">
         <v>54600.0</v>
       </c>
-      <c r="G64" s="16">
+      <c r="H64" s="16">
         <v>35000.0</v>
       </c>
-      <c r="H64" s="16">
+      <c r="I64" s="16">
         <v>0.14</v>
       </c>
-      <c r="I64" s="16">
+      <c r="J64" s="16">
         <v>5.4</v>
-      </c>
-      <c r="J64" s="16">
-        <v>0.01</v>
       </c>
       <c r="K64" s="16">
         <v>0.01</v>
       </c>
       <c r="L64" s="16">
-        <v>0.75</v>
+        <v>0.01</v>
       </c>
       <c r="M64" s="16">
         <v>0.75</v>
       </c>
       <c r="N64" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="O64" s="16">
         <v>26.5</v>
       </c>
     </row>
     <row r="65">
-      <c r="B65" s="22"/>
-      <c r="C65" s="22"/>
-      <c r="D65" s="22"/>
-      <c r="E65" s="22"/>
-      <c r="F65" s="22"/>
-      <c r="G65" s="15"/>
-      <c r="H65" s="22"/>
-      <c r="I65" s="16"/>
-      <c r="J65" s="22"/>
-      <c r="K65" s="22"/>
-      <c r="L65" s="22"/>
-      <c r="M65" s="22"/>
-      <c r="N65" s="22"/>
+      <c r="A65" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B65" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C65" s="11">
+        <v>45156.0</v>
+      </c>
+      <c r="D65" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E65" s="20">
+        <v>8.4</v>
+      </c>
+      <c r="F65" s="20">
+        <v>33600.0</v>
+      </c>
+      <c r="G65" s="23"/>
+      <c r="H65" s="15">
+        <v>35900.0</v>
+      </c>
+      <c r="I65" s="20">
+        <v>0.67</v>
+      </c>
+      <c r="J65" s="16">
+        <v>6.72</v>
+      </c>
+      <c r="K65" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="L65" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="M65" s="20">
+        <v>0.05</v>
+      </c>
+      <c r="N65" s="20">
+        <v>0.05</v>
+      </c>
+      <c r="O65" s="20">
+        <v>30.4</v>
+      </c>
+      <c r="P65" s="24"/>
+      <c r="Q65" s="24"/>
+      <c r="R65" s="24"/>
+      <c r="S65" s="24"/>
+      <c r="T65" s="24"/>
+      <c r="U65" s="24"/>
+      <c r="V65" s="24"/>
+      <c r="W65" s="24"/>
+      <c r="X65" s="24"/>
+      <c r="Y65" s="24"/>
+      <c r="Z65" s="24"/>
+      <c r="AA65" s="24"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B66" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C66" s="11">
+        <v>45156.0</v>
+      </c>
+      <c r="D66" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E66" s="22">
+        <v>8.5</v>
+      </c>
+      <c r="F66" s="22">
+        <v>34700.0</v>
+      </c>
+      <c r="G66" s="24"/>
+      <c r="H66" s="22">
+        <v>35600.0</v>
+      </c>
+      <c r="I66" s="22">
+        <v>0.21</v>
+      </c>
+      <c r="J66" s="22">
+        <v>6.16</v>
+      </c>
+      <c r="K66" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="L66" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="M66" s="22">
+        <v>0.03</v>
+      </c>
+      <c r="N66" s="22">
+        <v>0.03</v>
+      </c>
+      <c r="O66" s="22">
+        <v>30.0</v>
+      </c>
+      <c r="P66" s="24"/>
+      <c r="Q66" s="24"/>
+      <c r="R66" s="24"/>
+      <c r="S66" s="24"/>
+      <c r="T66" s="24"/>
+      <c r="U66" s="24"/>
+      <c r="V66" s="24"/>
+      <c r="W66" s="24"/>
+      <c r="X66" s="24"/>
+      <c r="Y66" s="24"/>
+      <c r="Z66" s="24"/>
+      <c r="AA66" s="24"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B67" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C67" s="11">
+        <v>45156.0</v>
+      </c>
+      <c r="D67" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E67" s="22">
+        <v>8.5</v>
+      </c>
+      <c r="F67" s="22">
+        <v>34600.0</v>
+      </c>
+      <c r="G67" s="24"/>
+      <c r="H67" s="22">
+        <v>35700.0</v>
+      </c>
+      <c r="I67" s="22">
+        <v>0.46</v>
+      </c>
+      <c r="J67" s="22">
+        <v>6.51</v>
+      </c>
+      <c r="K67" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="L67" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="M67" s="22">
+        <v>0.03</v>
+      </c>
+      <c r="N67" s="22">
+        <v>0.03</v>
+      </c>
+      <c r="O67" s="22">
+        <v>30.0</v>
+      </c>
+      <c r="P67" s="24"/>
+      <c r="Q67" s="24"/>
+      <c r="R67" s="24"/>
+      <c r="S67" s="24"/>
+      <c r="T67" s="24"/>
+      <c r="U67" s="24"/>
+      <c r="V67" s="24"/>
+      <c r="W67" s="24"/>
+      <c r="X67" s="24"/>
+      <c r="Y67" s="24"/>
+      <c r="Z67" s="24"/>
+      <c r="AA67" s="24"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B68" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C68" s="11">
+        <v>45156.0</v>
+      </c>
+      <c r="D68" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E68" s="22">
+        <v>8.6</v>
+      </c>
+      <c r="F68" s="22">
+        <v>34800.0</v>
+      </c>
+      <c r="G68" s="24"/>
+      <c r="H68" s="22">
+        <v>35800.0</v>
+      </c>
+      <c r="I68" s="22">
+        <v>0.05</v>
+      </c>
+      <c r="J68" s="22">
+        <v>6.22</v>
+      </c>
+      <c r="K68" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="L68" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="M68" s="22">
+        <v>0.03</v>
+      </c>
+      <c r="N68" s="22">
+        <v>0.03</v>
+      </c>
+      <c r="O68" s="22">
+        <v>29.7</v>
+      </c>
+      <c r="P68" s="24"/>
+      <c r="Q68" s="24"/>
+      <c r="R68" s="24"/>
+      <c r="S68" s="24"/>
+      <c r="T68" s="24"/>
+      <c r="U68" s="24"/>
+      <c r="V68" s="24"/>
+      <c r="W68" s="24"/>
+      <c r="X68" s="24"/>
+      <c r="Y68" s="24"/>
+      <c r="Z68" s="24"/>
+      <c r="AA68" s="24"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B69" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="C69" s="11"/>
+      <c r="D69" s="15"/>
+      <c r="E69" s="22"/>
+      <c r="F69" s="22"/>
+      <c r="G69" s="24"/>
+      <c r="H69" s="22"/>
+      <c r="I69" s="22"/>
+      <c r="J69" s="22">
+        <v>6.03</v>
+      </c>
+      <c r="K69" s="15"/>
+      <c r="L69" s="20"/>
+      <c r="M69" s="22"/>
+      <c r="N69" s="22"/>
+      <c r="O69" s="22"/>
+      <c r="P69" s="24"/>
+      <c r="Q69" s="24"/>
+      <c r="R69" s="24"/>
+      <c r="S69" s="24"/>
+      <c r="T69" s="24"/>
+      <c r="U69" s="24"/>
+      <c r="V69" s="24"/>
+      <c r="W69" s="24"/>
+      <c r="X69" s="24"/>
+      <c r="Y69" s="24"/>
+      <c r="Z69" s="24"/>
+      <c r="AA69" s="24"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B70" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C70" s="11">
+        <v>45156.0</v>
+      </c>
+      <c r="D70" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E70" s="22">
+        <v>8.5</v>
+      </c>
+      <c r="F70" s="22">
+        <v>34500.0</v>
+      </c>
+      <c r="G70" s="24"/>
+      <c r="H70" s="22">
+        <v>35300.0</v>
+      </c>
+      <c r="I70" s="22">
+        <v>19.0</v>
+      </c>
+      <c r="J70" s="22">
+        <v>6.71</v>
+      </c>
+      <c r="K70" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="L70" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="M70" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="N70" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="O70" s="22">
+        <v>30.0</v>
+      </c>
+      <c r="P70" s="24"/>
+      <c r="Q70" s="24"/>
+      <c r="R70" s="24"/>
+      <c r="S70" s="24"/>
+      <c r="T70" s="24"/>
+      <c r="U70" s="24"/>
+      <c r="V70" s="24"/>
+      <c r="W70" s="24"/>
+      <c r="X70" s="24"/>
+      <c r="Y70" s="24"/>
+      <c r="Z70" s="24"/>
+      <c r="AA70" s="24"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B71" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="C71" s="11"/>
+      <c r="D71" s="15"/>
+      <c r="E71" s="22"/>
+      <c r="F71" s="22"/>
+      <c r="G71" s="24"/>
+      <c r="H71" s="22"/>
+      <c r="J71" s="22">
+        <v>6.53</v>
+      </c>
+      <c r="K71" s="15"/>
+      <c r="L71" s="22"/>
+      <c r="M71" s="22"/>
+      <c r="N71" s="22"/>
+      <c r="O71" s="22"/>
+      <c r="P71" s="24"/>
+      <c r="Q71" s="24"/>
+      <c r="R71" s="24"/>
+      <c r="S71" s="24"/>
+      <c r="T71" s="24"/>
+      <c r="U71" s="24"/>
+      <c r="V71" s="24"/>
+      <c r="W71" s="24"/>
+      <c r="X71" s="24"/>
+      <c r="Y71" s="24"/>
+      <c r="Z71" s="24"/>
+      <c r="AA71" s="24"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B72" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C72" s="11">
+        <v>45156.0</v>
+      </c>
+      <c r="D72" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E72" s="22">
+        <v>8.4</v>
+      </c>
+      <c r="F72" s="22">
+        <v>34500.0</v>
+      </c>
+      <c r="G72" s="24"/>
+      <c r="H72" s="22">
+        <v>35500.0</v>
+      </c>
+      <c r="I72" s="22">
+        <v>0.79</v>
+      </c>
+      <c r="J72" s="22">
+        <v>6.86</v>
+      </c>
+      <c r="K72" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="L72" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="M72" s="22">
+        <v>0.03</v>
+      </c>
+      <c r="N72" s="22">
+        <v>0.03</v>
+      </c>
+      <c r="O72" s="22">
+        <v>30.2</v>
+      </c>
+      <c r="P72" s="24"/>
+      <c r="Q72" s="24"/>
+      <c r="R72" s="24"/>
+      <c r="S72" s="24"/>
+      <c r="T72" s="24"/>
+      <c r="U72" s="24"/>
+      <c r="V72" s="24"/>
+      <c r="W72" s="24"/>
+      <c r="X72" s="24"/>
+      <c r="Y72" s="24"/>
+      <c r="Z72" s="24"/>
+      <c r="AA72" s="24"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B73" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C73" s="11">
+        <v>45156.0</v>
+      </c>
+      <c r="D73" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E73" s="22">
+        <v>8.6</v>
+      </c>
+      <c r="F73" s="22">
+        <v>34500.0</v>
+      </c>
+      <c r="G73" s="24"/>
+      <c r="H73" s="22">
+        <v>35800.0</v>
+      </c>
+      <c r="I73" s="22">
+        <v>0.35</v>
+      </c>
+      <c r="J73" s="22">
+        <v>6.34</v>
+      </c>
+      <c r="K73" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="L73" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="M73" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="N73" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="O73" s="22">
+        <v>30.7</v>
+      </c>
+      <c r="P73" s="24"/>
+      <c r="Q73" s="24"/>
+      <c r="R73" s="24"/>
+      <c r="S73" s="24"/>
+      <c r="T73" s="24"/>
+      <c r="U73" s="24"/>
+      <c r="V73" s="24"/>
+      <c r="W73" s="24"/>
+      <c r="X73" s="24"/>
+      <c r="Y73" s="24"/>
+      <c r="Z73" s="24"/>
+      <c r="AA73" s="24"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B74" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C74" s="11">
+        <v>45156.0</v>
+      </c>
+      <c r="D74" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E74" s="22">
+        <v>8.6</v>
+      </c>
+      <c r="F74" s="22">
+        <v>34500.0</v>
+      </c>
+      <c r="G74" s="24"/>
+      <c r="H74" s="22">
+        <v>35800.0</v>
+      </c>
+      <c r="I74" s="22">
+        <v>0.56</v>
+      </c>
+      <c r="J74" s="22">
+        <v>6.65</v>
+      </c>
+      <c r="K74" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="L74" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="M74" s="22">
+        <v>0.03</v>
+      </c>
+      <c r="N74" s="22">
+        <v>0.03</v>
+      </c>
+      <c r="O74" s="22">
+        <v>30.2</v>
+      </c>
+      <c r="P74" s="24"/>
+      <c r="Q74" s="24"/>
+      <c r="R74" s="24"/>
+      <c r="S74" s="24"/>
+      <c r="T74" s="24"/>
+      <c r="U74" s="24"/>
+      <c r="V74" s="24"/>
+      <c r="W74" s="24"/>
+      <c r="X74" s="24"/>
+      <c r="Y74" s="24"/>
+      <c r="Z74" s="24"/>
+      <c r="AA74" s="24"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B75" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C75" s="11">
+        <v>45156.0</v>
+      </c>
+      <c r="D75" s="22">
+        <v>10.0</v>
+      </c>
+      <c r="E75" s="22">
+        <v>8.1</v>
+      </c>
+      <c r="F75" s="22">
+        <v>34400.0</v>
+      </c>
+      <c r="G75" s="24"/>
+      <c r="H75" s="22">
+        <v>35500.0</v>
+      </c>
+      <c r="I75" s="22">
+        <v>5.38</v>
+      </c>
+      <c r="J75" s="22">
+        <v>5.86</v>
+      </c>
+      <c r="K75" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="L75" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="M75" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="N75" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="O75" s="22">
+        <v>30.7</v>
+      </c>
+      <c r="P75" s="24"/>
+      <c r="Q75" s="24"/>
+      <c r="R75" s="24"/>
+      <c r="S75" s="24"/>
+      <c r="T75" s="24"/>
+      <c r="U75" s="24"/>
+      <c r="V75" s="24"/>
+      <c r="W75" s="24"/>
+      <c r="X75" s="24"/>
+      <c r="Y75" s="24"/>
+      <c r="Z75" s="24"/>
+      <c r="AA75" s="24"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B76" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C76" s="11">
+        <v>45156.0</v>
+      </c>
+      <c r="D76" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E76" s="22">
+        <v>8.4</v>
+      </c>
+      <c r="F76" s="22">
+        <v>34500.0</v>
+      </c>
+      <c r="G76" s="24"/>
+      <c r="H76" s="22">
+        <v>34800.0</v>
+      </c>
+      <c r="I76" s="22">
+        <v>2.09</v>
+      </c>
+      <c r="J76" s="22">
+        <v>6.11</v>
+      </c>
+      <c r="K76" s="22">
+        <v>0.269</v>
+      </c>
+      <c r="L76" s="22">
+        <v>0.269</v>
+      </c>
+      <c r="M76" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="N76" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="O76" s="22">
+        <v>30.8</v>
+      </c>
+      <c r="P76" s="24"/>
+      <c r="Q76" s="24"/>
+      <c r="R76" s="24"/>
+      <c r="S76" s="24"/>
+      <c r="T76" s="24"/>
+      <c r="U76" s="24"/>
+      <c r="V76" s="24"/>
+      <c r="W76" s="24"/>
+      <c r="X76" s="24"/>
+      <c r="Y76" s="24"/>
+      <c r="Z76" s="24"/>
+      <c r="AA76" s="24"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B77" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C77" s="11">
+        <v>45156.0</v>
+      </c>
+      <c r="D77" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E77" s="22">
+        <v>8.4</v>
+      </c>
+      <c r="F77" s="22">
+        <v>34400.0</v>
+      </c>
+      <c r="G77" s="24"/>
+      <c r="H77" s="22">
+        <v>35300.0</v>
+      </c>
+      <c r="I77" s="22">
+        <v>1.01</v>
+      </c>
+      <c r="J77" s="22">
+        <v>6.67</v>
+      </c>
+      <c r="K77" s="22">
+        <v>0.215</v>
+      </c>
+      <c r="L77" s="22">
+        <v>0.215</v>
+      </c>
+      <c r="M77" s="22">
+        <v>0.02</v>
+      </c>
+      <c r="N77" s="22">
+        <v>0.02</v>
+      </c>
+      <c r="O77" s="22">
+        <v>30.0</v>
+      </c>
+      <c r="P77" s="24"/>
+      <c r="Q77" s="24"/>
+      <c r="R77" s="24"/>
+      <c r="S77" s="24"/>
+      <c r="T77" s="24"/>
+      <c r="U77" s="24"/>
+      <c r="V77" s="24"/>
+      <c r="W77" s="24"/>
+      <c r="X77" s="24"/>
+      <c r="Y77" s="24"/>
+      <c r="Z77" s="24"/>
+      <c r="AA77" s="24"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B78" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C78" s="11">
+        <v>45156.0</v>
+      </c>
+      <c r="D78" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E78" s="22">
+        <v>8.6</v>
+      </c>
+      <c r="F78" s="22">
+        <v>34000.0</v>
+      </c>
+      <c r="G78" s="24"/>
+      <c r="H78" s="22">
+        <v>35300.0</v>
+      </c>
+      <c r="I78" s="22">
+        <v>0.72</v>
+      </c>
+      <c r="J78" s="22">
+        <v>6.26</v>
+      </c>
+      <c r="K78" s="22">
+        <v>0.037</v>
+      </c>
+      <c r="L78" s="22">
+        <v>0.037</v>
+      </c>
+      <c r="M78" s="22">
+        <v>0.03</v>
+      </c>
+      <c r="N78" s="22">
+        <v>0.03</v>
+      </c>
+      <c r="O78" s="22">
+        <v>30.2</v>
+      </c>
+      <c r="P78" s="24"/>
+      <c r="Q78" s="24"/>
+      <c r="R78" s="24"/>
+      <c r="S78" s="24"/>
+      <c r="T78" s="24"/>
+      <c r="U78" s="24"/>
+      <c r="V78" s="24"/>
+      <c r="W78" s="24"/>
+      <c r="X78" s="24"/>
+      <c r="Y78" s="24"/>
+      <c r="Z78" s="24"/>
+      <c r="AA78" s="24"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B79" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="C79" s="11">
+        <v>45156.0</v>
+      </c>
+      <c r="D79" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="E79" s="25">
+        <v>8.5</v>
+      </c>
+      <c r="F79" s="25">
+        <v>34000.0</v>
+      </c>
+      <c r="G79" s="27"/>
+      <c r="H79" s="25">
+        <v>35500.0</v>
+      </c>
+      <c r="I79" s="25">
+        <v>3.87</v>
+      </c>
+      <c r="J79" s="25">
+        <v>6.0</v>
+      </c>
+      <c r="K79" s="25">
+        <v>0.18</v>
+      </c>
+      <c r="L79" s="25">
+        <v>0.18</v>
+      </c>
+      <c r="M79" s="25">
+        <v>0.03</v>
+      </c>
+      <c r="N79" s="25">
+        <v>0.03</v>
+      </c>
+      <c r="O79" s="25">
+        <v>30.2</v>
+      </c>
+      <c r="P79" s="27"/>
+      <c r="Q79" s="27"/>
+      <c r="R79" s="27"/>
+      <c r="S79" s="27"/>
+      <c r="T79" s="27"/>
+      <c r="U79" s="27"/>
+      <c r="V79" s="27"/>
+      <c r="W79" s="27"/>
+      <c r="X79" s="27"/>
+      <c r="Y79" s="27"/>
+      <c r="Z79" s="27"/>
+      <c r="AA79" s="27"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B80" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="C80" s="11">
+        <v>45156.0</v>
+      </c>
+      <c r="D80" s="25"/>
+      <c r="E80" s="25"/>
+      <c r="F80" s="25"/>
+      <c r="G80" s="27"/>
+      <c r="H80" s="25"/>
+      <c r="I80" s="27"/>
+      <c r="J80" s="25">
+        <v>5.81</v>
+      </c>
+      <c r="K80" s="25"/>
+      <c r="L80" s="25"/>
+      <c r="M80" s="25"/>
+      <c r="N80" s="25"/>
+      <c r="O80" s="27"/>
+      <c r="P80" s="27"/>
+      <c r="Q80" s="27"/>
+      <c r="R80" s="27"/>
+      <c r="S80" s="27"/>
+      <c r="T80" s="27"/>
+      <c r="U80" s="27"/>
+      <c r="V80" s="27"/>
+      <c r="W80" s="27"/>
+      <c r="X80" s="27"/>
+      <c r="Y80" s="27"/>
+      <c r="Z80" s="27"/>
+      <c r="AA80" s="27"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="B81" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="C81" s="11">
+        <v>45156.0</v>
+      </c>
+      <c r="D81" s="25">
+        <v>1.0</v>
+      </c>
+      <c r="E81" s="25">
+        <v>8.6</v>
+      </c>
+      <c r="F81" s="25">
+        <v>33200.0</v>
+      </c>
+      <c r="G81" s="27"/>
+      <c r="H81" s="25">
+        <v>35700.0</v>
+      </c>
+      <c r="I81" s="25">
+        <v>0.32</v>
+      </c>
+      <c r="J81" s="25">
+        <v>6.53</v>
+      </c>
+      <c r="K81" s="25">
+        <v>0.284</v>
+      </c>
+      <c r="L81" s="25">
+        <v>0.284</v>
+      </c>
+      <c r="M81" s="25">
+        <v>0.03</v>
+      </c>
+      <c r="N81" s="25">
+        <v>0.03</v>
+      </c>
+      <c r="O81" s="25">
+        <v>30.2</v>
+      </c>
+      <c r="P81" s="27"/>
+      <c r="Q81" s="27"/>
+      <c r="R81" s="27"/>
+      <c r="S81" s="27"/>
+      <c r="T81" s="27"/>
+      <c r="U81" s="27"/>
+      <c r="V81" s="27"/>
+      <c r="W81" s="27"/>
+      <c r="X81" s="27"/>
+      <c r="Y81" s="27"/>
+      <c r="Z81" s="27"/>
+      <c r="AA81" s="27"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="B82" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="C82" s="11">
+        <v>45156.0</v>
+      </c>
+      <c r="D82" s="25"/>
+      <c r="E82" s="25"/>
+      <c r="F82" s="25"/>
+      <c r="G82" s="27"/>
+      <c r="H82" s="25"/>
+      <c r="I82" s="27"/>
+      <c r="J82" s="25">
+        <v>6.4</v>
+      </c>
+      <c r="K82" s="25"/>
+      <c r="L82" s="25"/>
+      <c r="M82" s="25"/>
+      <c r="N82" s="25"/>
+      <c r="O82" s="27"/>
+      <c r="P82" s="27"/>
+      <c r="Q82" s="27"/>
+      <c r="R82" s="27"/>
+      <c r="S82" s="27"/>
+      <c r="T82" s="27"/>
+      <c r="U82" s="27"/>
+      <c r="V82" s="27"/>
+      <c r="W82" s="27"/>
+      <c r="X82" s="27"/>
+      <c r="Y82" s="27"/>
+      <c r="Z82" s="27"/>
+      <c r="AA82" s="27"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B83" s="25">
+        <v>1.0</v>
+      </c>
+      <c r="C83" s="11">
+        <v>45156.0</v>
+      </c>
+      <c r="D83" s="25">
+        <v>2.0</v>
+      </c>
+      <c r="E83" s="25">
+        <v>8.6</v>
+      </c>
+      <c r="F83" s="25">
+        <v>34100.0</v>
+      </c>
+      <c r="G83" s="27"/>
+      <c r="H83" s="25">
+        <v>35600.0</v>
+      </c>
+      <c r="I83" s="25">
+        <v>0.24</v>
+      </c>
+      <c r="J83" s="25">
+        <v>6.91</v>
+      </c>
+      <c r="K83" s="25">
+        <v>0.052</v>
+      </c>
+      <c r="L83" s="25">
+        <v>0.052</v>
+      </c>
+      <c r="M83" s="25">
+        <v>0.03</v>
+      </c>
+      <c r="N83" s="25">
+        <v>0.03</v>
+      </c>
+      <c r="O83" s="25">
+        <v>30.3</v>
+      </c>
+      <c r="P83" s="27"/>
+      <c r="Q83" s="27"/>
+      <c r="R83" s="27"/>
+      <c r="S83" s="27"/>
+      <c r="T83" s="27"/>
+      <c r="U83" s="27"/>
+      <c r="V83" s="27"/>
+      <c r="W83" s="27"/>
+      <c r="X83" s="27"/>
+      <c r="Y83" s="27"/>
+      <c r="Z83" s="27"/>
+      <c r="AA83" s="27"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B84" s="25">
+        <v>2.0</v>
+      </c>
+      <c r="C84" s="11">
+        <v>45156.0</v>
+      </c>
+      <c r="D84" s="25"/>
+      <c r="E84" s="25"/>
+      <c r="F84" s="25"/>
+      <c r="G84" s="27"/>
+      <c r="H84" s="25"/>
+      <c r="I84" s="27"/>
+      <c r="J84" s="25">
+        <v>6.84</v>
+      </c>
+      <c r="K84" s="25"/>
+      <c r="L84" s="25"/>
+      <c r="M84" s="25"/>
+      <c r="N84" s="25"/>
+      <c r="O84" s="27"/>
+      <c r="P84" s="27"/>
+      <c r="Q84" s="27"/>
+      <c r="R84" s="27"/>
+      <c r="S84" s="27"/>
+      <c r="T84" s="27"/>
+      <c r="U84" s="27"/>
+      <c r="V84" s="27"/>
+      <c r="W84" s="27"/>
+      <c r="X84" s="27"/>
+      <c r="Y84" s="27"/>
+      <c r="Z84" s="27"/>
+      <c r="AA84" s="27"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="B85" s="25">
+        <v>1.0</v>
+      </c>
+      <c r="C85" s="11">
+        <v>45156.0</v>
+      </c>
+      <c r="D85" s="25">
+        <v>2.0</v>
+      </c>
+      <c r="E85" s="25">
+        <v>8.6</v>
+      </c>
+      <c r="F85" s="25">
+        <v>33400.0</v>
+      </c>
+      <c r="G85" s="27"/>
+      <c r="H85" s="25">
+        <v>36100.0</v>
+      </c>
+      <c r="I85" s="25">
+        <v>0.15</v>
+      </c>
+      <c r="J85" s="25">
+        <v>6.84</v>
+      </c>
+      <c r="K85" s="25">
+        <v>0.081</v>
+      </c>
+      <c r="L85" s="25">
+        <v>0.081</v>
+      </c>
+      <c r="M85" s="25">
+        <v>0.04</v>
+      </c>
+      <c r="N85" s="25">
+        <v>0.04</v>
+      </c>
+      <c r="O85" s="25">
+        <v>30.4</v>
+      </c>
+      <c r="P85" s="27"/>
+      <c r="Q85" s="27"/>
+      <c r="R85" s="27"/>
+      <c r="S85" s="27"/>
+      <c r="T85" s="27"/>
+      <c r="U85" s="27"/>
+      <c r="V85" s="27"/>
+      <c r="W85" s="27"/>
+      <c r="X85" s="27"/>
+      <c r="Y85" s="27"/>
+      <c r="Z85" s="27"/>
+      <c r="AA85" s="27"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="B86" s="25">
+        <v>2.0</v>
+      </c>
+      <c r="C86" s="11">
+        <v>45156.0</v>
+      </c>
+      <c r="D86" s="25"/>
+      <c r="E86" s="25"/>
+      <c r="F86" s="25"/>
+      <c r="G86" s="27"/>
+      <c r="H86" s="25"/>
+      <c r="I86" s="27"/>
+      <c r="J86" s="25">
+        <v>6.16</v>
+      </c>
+      <c r="K86" s="25"/>
+      <c r="L86" s="25"/>
+      <c r="M86" s="25"/>
+      <c r="N86" s="25"/>
+      <c r="O86" s="27"/>
+      <c r="P86" s="27"/>
+      <c r="Q86" s="27"/>
+      <c r="R86" s="27"/>
+      <c r="S86" s="27"/>
+      <c r="T86" s="27"/>
+      <c r="U86" s="27"/>
+      <c r="V86" s="27"/>
+      <c r="W86" s="27"/>
+      <c r="X86" s="27"/>
+      <c r="Y86" s="27"/>
+      <c r="Z86" s="27"/>
+      <c r="AA86" s="27"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B87" s="25">
+        <v>1.0</v>
+      </c>
+      <c r="C87" s="11">
+        <v>45156.0</v>
+      </c>
+      <c r="D87" s="25">
+        <v>2.0</v>
+      </c>
+      <c r="E87" s="25">
+        <v>8.6</v>
+      </c>
+      <c r="F87" s="25">
+        <v>33600.0</v>
+      </c>
+      <c r="G87" s="27"/>
+      <c r="H87" s="25">
+        <v>35800.0</v>
+      </c>
+      <c r="I87" s="28">
+        <v>0.15</v>
+      </c>
+      <c r="J87" s="25">
+        <v>6.42</v>
+      </c>
+      <c r="K87" s="25">
+        <v>0.024</v>
+      </c>
+      <c r="L87" s="25">
+        <v>0.024</v>
+      </c>
+      <c r="M87" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="N87" s="25">
+        <v>0.0</v>
+      </c>
+      <c r="O87" s="25">
+        <v>30.8</v>
+      </c>
+      <c r="P87" s="27"/>
+      <c r="Q87" s="27"/>
+      <c r="R87" s="27"/>
+      <c r="S87" s="27"/>
+      <c r="T87" s="27"/>
+      <c r="U87" s="27"/>
+      <c r="V87" s="27"/>
+      <c r="W87" s="27"/>
+      <c r="X87" s="27"/>
+      <c r="Y87" s="27"/>
+      <c r="Z87" s="27"/>
+      <c r="AA87" s="27"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="B88" s="25">
+        <v>1.0</v>
+      </c>
+      <c r="C88" s="11">
+        <v>45156.0</v>
+      </c>
+      <c r="D88" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="E88" s="25">
+        <v>8.5</v>
+      </c>
+      <c r="F88" s="25">
+        <v>33300.0</v>
+      </c>
+      <c r="G88" s="27"/>
+      <c r="H88" s="25">
+        <v>35100.0</v>
+      </c>
+      <c r="I88" s="25">
+        <v>0.42</v>
+      </c>
+      <c r="J88" s="25">
+        <v>6.59</v>
+      </c>
+      <c r="K88" s="25">
+        <v>0.071</v>
+      </c>
+      <c r="L88" s="25">
+        <v>0.071</v>
+      </c>
+      <c r="M88" s="25">
+        <v>0.03</v>
+      </c>
+      <c r="N88" s="25">
+        <v>0.03</v>
+      </c>
+      <c r="O88" s="25">
+        <v>30.2</v>
+      </c>
+      <c r="P88" s="27"/>
+      <c r="Q88" s="27"/>
+      <c r="R88" s="27"/>
+      <c r="S88" s="27"/>
+      <c r="T88" s="27"/>
+      <c r="U88" s="27"/>
+      <c r="V88" s="27"/>
+      <c r="W88" s="27"/>
+      <c r="X88" s="27"/>
+      <c r="Y88" s="27"/>
+      <c r="Z88" s="27"/>
+      <c r="AA88" s="27"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B89" s="25">
+        <v>1.0</v>
+      </c>
+      <c r="C89" s="11">
+        <v>45156.0</v>
+      </c>
+      <c r="D89" s="25">
+        <v>2.0</v>
+      </c>
+      <c r="E89" s="25">
+        <v>8.6</v>
+      </c>
+      <c r="F89" s="25">
+        <v>33600.0</v>
+      </c>
+      <c r="G89" s="27"/>
+      <c r="H89" s="25">
+        <v>35200.0</v>
+      </c>
+      <c r="I89" s="25">
+        <v>0.26</v>
+      </c>
+      <c r="J89" s="25">
+        <v>6.62</v>
+      </c>
+      <c r="K89" s="25">
+        <v>0.003</v>
+      </c>
+      <c r="L89" s="25">
+        <v>0.003</v>
+      </c>
+      <c r="M89" s="25">
+        <v>0.03</v>
+      </c>
+      <c r="N89" s="25">
+        <v>0.03</v>
+      </c>
+      <c r="O89" s="25">
+        <v>29.9</v>
+      </c>
+      <c r="P89" s="27"/>
+      <c r="Q89" s="27"/>
+      <c r="R89" s="27"/>
+      <c r="S89" s="27"/>
+      <c r="T89" s="27"/>
+      <c r="U89" s="27"/>
+      <c r="V89" s="27"/>
+      <c r="W89" s="27"/>
+      <c r="X89" s="27"/>
+      <c r="Y89" s="27"/>
+      <c r="Z89" s="27"/>
+      <c r="AA89" s="27"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B90" s="25">
+        <v>1.0</v>
+      </c>
+      <c r="C90" s="11">
+        <v>45156.0</v>
+      </c>
+      <c r="D90" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="E90" s="25">
+        <v>8.6</v>
+      </c>
+      <c r="F90" s="25">
+        <v>33800.0</v>
+      </c>
+      <c r="G90" s="27"/>
+      <c r="H90" s="25">
+        <v>36200.0</v>
+      </c>
+      <c r="I90" s="25">
+        <v>0.52</v>
+      </c>
+      <c r="J90" s="25">
+        <v>6.25</v>
+      </c>
+      <c r="K90" s="25">
+        <v>0.029</v>
+      </c>
+      <c r="L90" s="25">
+        <v>0.029</v>
+      </c>
+      <c r="M90" s="25">
+        <v>0.04</v>
+      </c>
+      <c r="N90" s="25">
+        <v>0.04</v>
+      </c>
+      <c r="O90" s="25">
+        <v>29.9</v>
+      </c>
+      <c r="P90" s="27"/>
+      <c r="Q90" s="27"/>
+      <c r="R90" s="27"/>
+      <c r="S90" s="27"/>
+      <c r="T90" s="27"/>
+      <c r="U90" s="27"/>
+      <c r="V90" s="27"/>
+      <c r="W90" s="27"/>
+      <c r="X90" s="27"/>
+      <c r="Y90" s="27"/>
+      <c r="Z90" s="27"/>
+      <c r="AA90" s="27"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -3606,223 +5197,278 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="23" t="s">
+      <c r="B20" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="B21" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="28" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="23" t="s">
+      <c r="B22" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="28" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="28" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="23" t="s">
+      <c r="B23" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="28" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="B24" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="28" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="28" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="23" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" s="23" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19" s="23" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="24" t="s">
+      <c r="B25" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="C20" s="24" t="s">
-        <v>62</v>
+      <c r="C25" s="28" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/water_quality/data_raw/Water quality data.xlsx
+++ b/water_quality/data_raw/Water quality data.xlsx
@@ -130,7 +130,7 @@
     <t>DB</t>
   </si>
   <si>
-    <t>Exchange Bay - Dansby</t>
+    <t>Exchange Bay - Turtle Beach</t>
   </si>
   <si>
     <t>MRCH</t>
@@ -178,7 +178,7 @@
     <t>BDB</t>
   </si>
   <si>
-    <t>Big Deep Bay</t>
+    <t>Great Deep Bay</t>
   </si>
   <si>
     <t>LDB</t>
